--- a/tempos/Livro1.xlsx
+++ b/tempos/Livro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinto\Desktop\faculdade\Mestrado\tese\tempos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B13346-33EC-4535-B535-6936E5827A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6510FE-C2FD-4EFC-BD04-0872B9BBC6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8EBD9DCE-4E05-454A-9645-960691A486AE}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EBD9DCE-4E05-454A-9645-960691A486AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>THREADS</t>
   </si>
@@ -63,6 +85,9 @@
   </si>
   <si>
     <t>% FASTER TORC_MAP</t>
+  </si>
+  <si>
+    <t>STENCIL</t>
   </si>
 </sst>
 </file>
@@ -106,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,14 +139,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -129,6 +173,19 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -136,6 +193,19 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -143,6 +213,76 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -150,6 +290,19 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -157,31 +310,311 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -235,17 +668,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}" name="Tabela3" displayName="Tabela3" ref="C8:H18" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}" name="Tabela3" displayName="Tabela3" ref="C8:H19" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="C8:H18" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="39" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="38" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="37" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="36" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="35" totalsRowDxfId="7">
       <calculatedColumnFormula>100 - (D9*100/F9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="34" totalsRowDxfId="6">
       <calculatedColumnFormula>100 - (E9*100/F9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -254,17 +687,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H34" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="C23:H33" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="31" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="30" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="29" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="28" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="27" totalsRowDxfId="1">
       <calculatedColumnFormula>100 - (D24*100/F24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="26" totalsRowDxfId="0">
       <calculatedColumnFormula>(E24*100/F24) - 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -272,10 +705,31 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}" name="Tabela332" displayName="Tabela332" ref="C41:H52" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="C41:H51" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{547AC1A3-2A11-4C9B-B162-7377C62A83AA}" name="THREADS" dataDxfId="23" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{829B1D67-909C-47B5-BDFB-6BCABB018C83}" name="NO_TORCPY" dataDxfId="22" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{77F01A88-0E90-4311-A77A-9CFB20F91830}" name="WITH_TORCPY_MAP" dataDxfId="21" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{907655F2-A1EC-4098-AD88-83A40E44C685}" name="WITH_TORCPY_MINE" dataDxfId="20" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{CD390048-0FDB-44C7-8D50-5BC3B37B5032}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="13">
+      <calculatedColumnFormula>100 - (D42*100/F42)</calculatedColumnFormula>
+      <totalsRowFormula array="1">SUM(Tabela332[% FASTER NO_TORCPY]/10)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5588AC35-A2AA-4678-A606-34333CE63B29}" name="% SLOWER TORC_MAP" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="12">
+      <calculatedColumnFormula>(E42*100/F42) - 100</calculatedColumnFormula>
+      <totalsRowFormula array="1">SUM(Tabela332[% SLOWER TORC_MAP]/10)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +767,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +873,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +1015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF78862-5946-4DF0-A9D6-D2FEDB594540}">
-  <dimension ref="C7:H33"/>
+  <dimension ref="C7:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -829,6 +1283,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -873,11 +1335,11 @@
         <v>16.815936803817699</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:H33" si="2">100 - (D24*100/F24)</f>
+        <f>100 - (D24*100/F24)</f>
         <v>7.5527308493800973</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ref="H24:H33" si="3">(E24*100/F24) - 100</f>
+        <f t="shared" ref="H24:H33" si="2">(E24*100/F24) - 100</f>
         <v>165.11702467467245</v>
       </c>
     </row>
@@ -895,11 +1357,11 @@
         <v>40.839495420455897</v>
       </c>
       <c r="G25" s="1">
+        <f t="shared" ref="G24:G33" si="3">100 - (D25*100/F25)</f>
+        <v>7.1487232314262741</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>7.1487232314262741</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="3"/>
         <v>46.199104075660188</v>
       </c>
     </row>
@@ -917,11 +1379,11 @@
         <v>22.404618740081698</v>
       </c>
       <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6288524995725737</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>5.6288524995725737</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="3"/>
         <v>174.25827361664909</v>
       </c>
     </row>
@@ -939,11 +1401,11 @@
         <v>66.797793865203801</v>
       </c>
       <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6723634479769203</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>3.6723634479769203</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="3"/>
         <v>59.201087778575442</v>
       </c>
     </row>
@@ -961,11 +1423,11 @@
         <v>35.932974576950002</v>
       </c>
       <c r="G28" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3177549498628025</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>2.3177549498628025</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="3"/>
         <v>210.49295818056379</v>
       </c>
     </row>
@@ -983,11 +1445,11 @@
         <v>66.517926216125403</v>
       </c>
       <c r="G29" s="1">
+        <f t="shared" si="3"/>
+        <v>10.59398493179134</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>10.59398493179134</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="3"/>
         <v>220.47887040149715</v>
       </c>
     </row>
@@ -1005,11 +1467,11 @@
         <v>131.02463364601101</v>
       </c>
       <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>11.527736392181737</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>11.527736392181737</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="3"/>
         <v>222.10943904659865</v>
       </c>
     </row>
@@ -1021,11 +1483,11 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="1" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1037,11 +1499,11 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="1" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1053,24 +1515,304 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C42" s="1">
+        <v>96</v>
+      </c>
+      <c r="D42" s="1">
+        <v>28.813753366470301</v>
+      </c>
+      <c r="E42" s="1">
+        <v>28.725849866867001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>27.853418588638299</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ref="G42:G51" si="4">100 - (D42*100/F42)</f>
+        <v>-3.4478165571522794</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" ref="H42:H51" si="5">(E42*100/F42) - 100</f>
+        <v>3.1322233407448863</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C43" s="1">
+        <v>65</v>
+      </c>
+      <c r="D43" s="1">
+        <v>39.340156555175703</v>
+      </c>
+      <c r="E43" s="1">
+        <v>39.820995092391897</v>
+      </c>
+      <c r="F43" s="1">
+        <v>39.104621648788402</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.6023198702770145</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8319406080372858</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C44" s="1">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1">
+        <v>40.397493600845301</v>
+      </c>
+      <c r="E44" s="1">
+        <v>38.4539184570312</v>
+      </c>
+      <c r="F44" s="1">
+        <v>40.724493026733398</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="4"/>
+        <v>0.80295517902074209</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.5754520214940158</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C45" s="1">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1">
+        <v>76.809633731841998</v>
+      </c>
+      <c r="E45" s="1">
+        <v>72.981305837631197</v>
+      </c>
+      <c r="F45" s="1">
+        <v>72.495656490325899</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.9506699440562585</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="5"/>
+        <v>0.66990130280440496</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C46" s="1">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1">
+        <v>79.858301877975407</v>
+      </c>
+      <c r="E46" s="1">
+        <v>71.353382587432804</v>
+      </c>
+      <c r="F46" s="1">
+        <v>74.347388744354205</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="4"/>
+        <v>-7.4123829050279681</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.0270495137581577</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C47" s="1">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1">
+        <v>86.824947595596299</v>
+      </c>
+      <c r="E47" s="1">
+        <v>81.003350257873507</v>
+      </c>
+      <c r="F47" s="1">
+        <v>79.841888427734304</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.7461097243240005</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4547023536278942</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C48" s="1">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1">
+        <v>150.98461818695</v>
+      </c>
+      <c r="E48" s="1">
+        <v>151.43423056602401</v>
+      </c>
+      <c r="F48" s="1">
+        <v>154.462168931961</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2513931851771645</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.9603106617457655</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1">
+        <v>304.69980812072703</v>
+      </c>
+      <c r="E49" s="1">
+        <v>296.98543405532803</v>
+      </c>
+      <c r="F49" s="1">
+        <v>294.11314558982798</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.5995203511451592</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="5"/>
+        <v>0.97659302502097489</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>574.90111565589905</v>
+      </c>
+      <c r="E50" s="1">
+        <v>561.32839250564496</v>
+      </c>
+      <c r="F50" s="1">
+        <v>606.58675003051701</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2235948729549193</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="5"/>
+        <v>-7.461151685656688</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1147.3579795360499</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1158.19151115417</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1147.2181239128099</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.2190848481637317E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="5"/>
+        <v>0.95652143325048655</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" cm="1">
+        <f t="array" ref="G52">SUM(Tabela332[% FASTER NO_TORCPY]/10)</f>
+        <v>-2.1493066963311493</v>
+      </c>
+      <c r="H52" s="4" cm="1">
+        <f t="array" ref="H52">SUM(Tabela332[% SLOWER TORC_MAP]/10)</f>
+        <v>-1.0002081819168696</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="E37:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tempos/Livro1.xlsx
+++ b/tempos/Livro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinto\Desktop\faculdade\Mestrado\tese\tempos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6510FE-C2FD-4EFC-BD04-0872B9BBC6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98754D8B-D18D-4DA5-9B6B-E1BB75078008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EBD9DCE-4E05-454A-9645-960691A486AE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8EBD9DCE-4E05-454A-9645-960691A486AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>THREADS</t>
   </si>
@@ -89,12 +89,15 @@
   <si>
     <t>STENCIL</t>
   </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +113,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,11 +150,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,7 +189,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -167,7 +229,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -187,7 +248,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -207,7 +267,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -270,6 +329,13 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -290,6 +356,13 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -310,6 +383,13 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -330,6 +410,13 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -349,6 +436,12 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -368,6 +461,12 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -387,6 +486,56 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -407,6 +556,13 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -427,6 +583,13 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -447,6 +610,13 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -466,6 +636,12 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -485,6 +661,12 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -499,129 +681,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -671,14 +730,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}" name="Tabela3" displayName="Tabela3" ref="C8:H19" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="C8:H18" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="39" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="38" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="37" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="36" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="35" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>100 - (D9*100/F9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="34" totalsRowDxfId="6">
+    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>100 - (E9*100/F9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -687,17 +746,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H34" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H34" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="C23:H33" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="31" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="30" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="29" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="28" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="27" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>100 - (D24*100/F24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="26" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>(E24*100/F24) - 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -709,17 +768,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}" name="Tabela332" displayName="Tabela332" ref="C41:H52" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="C41:H51" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{547AC1A3-2A11-4C9B-B162-7377C62A83AA}" name="THREADS" dataDxfId="23" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{829B1D67-909C-47B5-BDFB-6BCABB018C83}" name="NO_TORCPY" dataDxfId="22" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{77F01A88-0E90-4311-A77A-9CFB20F91830}" name="WITH_TORCPY_MAP" dataDxfId="21" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{907655F2-A1EC-4098-AD88-83A40E44C685}" name="WITH_TORCPY_MINE" dataDxfId="20" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{CD390048-0FDB-44C7-8D50-5BC3B37B5032}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="13">
+    <tableColumn id="1" xr3:uid="{547AC1A3-2A11-4C9B-B162-7377C62A83AA}" name="THREADS" dataDxfId="23" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{829B1D67-909C-47B5-BDFB-6BCABB018C83}" name="NO_TORCPY" dataDxfId="22" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{77F01A88-0E90-4311-A77A-9CFB20F91830}" name="WITH_TORCPY_MAP" dataDxfId="21" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{907655F2-A1EC-4098-AD88-83A40E44C685}" name="WITH_TORCPY_MINE" dataDxfId="20" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CD390048-0FDB-44C7-8D50-5BC3B37B5032}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="1">
       <calculatedColumnFormula>100 - (D42*100/F42)</calculatedColumnFormula>
       <totalsRowFormula array="1">SUM(Tabela332[% FASTER NO_TORCPY]/10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5588AC35-A2AA-4678-A606-34333CE63B29}" name="% SLOWER TORC_MAP" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="12">
-      <calculatedColumnFormula>(E42*100/F42) - 100</calculatedColumnFormula>
-      <totalsRowFormula array="1">SUM(Tabela332[% SLOWER TORC_MAP]/10)</totalsRowFormula>
+    <tableColumn id="6" xr3:uid="{5588AC35-A2AA-4678-A606-34333CE63B29}" name="% FASTER TORC_MAP" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
+      <calculatedColumnFormula>100 - (E42*100/F42)</calculatedColumnFormula>
+      <totalsRowFormula array="1">SUM(Tabela332[% FASTER TORC_MAP]/10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1023,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF78862-5946-4DF0-A9D6-D2FEDB594540}">
-  <dimension ref="C7:H52"/>
+  <dimension ref="A7:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1287,9 +1346,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C22" s="2" t="s">
@@ -1357,7 +1416,7 @@
         <v>40.839495420455897</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G24:G33" si="3">100 - (D25*100/F25)</f>
+        <f t="shared" ref="G25:G33" si="3">100 - (D25*100/F25)</f>
         <v>7.1487232314262741</v>
       </c>
       <c r="H25" s="1">
@@ -1527,9 +1586,9 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E37" s="3" t="s">
@@ -1563,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.45">
@@ -1571,21 +1630,21 @@
         <v>96</v>
       </c>
       <c r="D42" s="1">
-        <v>28.813753366470301</v>
+        <v>28.18661539</v>
       </c>
       <c r="E42" s="1">
-        <v>28.725849866867001</v>
+        <v>28.562558970000001</v>
       </c>
       <c r="F42" s="1">
-        <v>27.853418588638299</v>
+        <v>28.066862579999999</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" ref="G42:G51" si="4">100 - (D42*100/F42)</f>
-        <v>-3.4478165571522794</v>
+        <v>-0.42666974143855896</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" ref="H42:H51" si="5">(E42*100/F42) - 100</f>
-        <v>3.1322233407448863</v>
+        <f t="shared" ref="H42:H51" si="5">100 - (E42*100/F42)</f>
+        <v>-1.7661268287009335</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.45">
@@ -1593,21 +1652,21 @@
         <v>65</v>
       </c>
       <c r="D43" s="1">
-        <v>39.340156555175703</v>
+        <v>39.188588299999999</v>
       </c>
       <c r="E43" s="1">
-        <v>39.820995092391897</v>
+        <v>38.717339199999998</v>
       </c>
       <c r="F43" s="1">
-        <v>39.104621648788402</v>
+        <v>38.803967710000002</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>-0.6023198702770145</v>
+        <v>-0.99118882088153271</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="5"/>
-        <v>1.8319406080372858</v>
+        <v>0.22324652635374775</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.45">
@@ -1615,21 +1674,21 @@
         <v>64</v>
       </c>
       <c r="D44" s="1">
-        <v>40.397493600845301</v>
+        <v>41.058056200000003</v>
       </c>
       <c r="E44" s="1">
-        <v>38.4539184570312</v>
+        <v>39.453190169999999</v>
       </c>
       <c r="F44" s="1">
-        <v>40.724493026733398</v>
+        <v>39.539218429999998</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="4"/>
-        <v>0.80295517902074209</v>
+        <v>-3.8413449489117824</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="5"/>
-        <v>-5.5754520214940158</v>
+        <v>0.21757703722015265</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.45">
@@ -1637,21 +1696,21 @@
         <v>33</v>
       </c>
       <c r="D45" s="1">
-        <v>76.809633731841998</v>
+        <v>75.058801729999999</v>
       </c>
       <c r="E45" s="1">
-        <v>72.981305837631197</v>
+        <v>71.73426517</v>
       </c>
       <c r="F45" s="1">
-        <v>72.495656490325899</v>
+        <v>75.059882720000004</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="4"/>
-        <v>-5.9506699440562585</v>
+        <v>1.4401701159556524E-3</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="5"/>
-        <v>0.66990130280440496</v>
+        <v>4.4306191663071672</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.45">
@@ -1659,21 +1718,21 @@
         <v>32</v>
       </c>
       <c r="D46" s="1">
-        <v>79.858301877975407</v>
+        <v>76.030074909999996</v>
       </c>
       <c r="E46" s="1">
-        <v>71.353382587432804</v>
+        <v>73.807288009999994</v>
       </c>
       <c r="F46" s="1">
-        <v>74.347388744354205</v>
+        <v>76.004185519999993</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="4"/>
-        <v>-7.4123829050279681</v>
+        <v>-3.4063110896951798E-2</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="5"/>
-        <v>-4.0270495137581577</v>
+        <v>2.8904954312310878</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.45">
@@ -1681,21 +1740,21 @@
         <v>16</v>
       </c>
       <c r="D47" s="1">
-        <v>86.824947595596299</v>
+        <v>82.231000899999998</v>
       </c>
       <c r="E47" s="1">
-        <v>81.003350257873507</v>
+        <v>78.91267053</v>
       </c>
       <c r="F47" s="1">
-        <v>79.841888427734304</v>
+        <v>80.914210879999999</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="4"/>
-        <v>-8.7461097243240005</v>
+        <v>-1.6273903010101236</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="5"/>
-        <v>1.4547023536278942</v>
+        <v>2.4736573813571425</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.45">
@@ -1703,21 +1762,21 @@
         <v>8</v>
       </c>
       <c r="D48" s="1">
-        <v>150.98461818695</v>
+        <v>153.12796499999999</v>
       </c>
       <c r="E48" s="1">
-        <v>151.43423056602401</v>
+        <v>151.19525300000001</v>
       </c>
       <c r="F48" s="1">
-        <v>154.462168931961</v>
+        <v>158.4099698</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="4"/>
-        <v>2.2513931851771645</v>
+        <v>3.334389121258468</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="5"/>
-        <v>-1.9603106617457655</v>
+        <v>4.5544587939186556</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.45">
@@ -1725,21 +1784,21 @@
         <v>4</v>
       </c>
       <c r="D49" s="1">
-        <v>304.69980812072703</v>
+        <v>301.03539050000001</v>
       </c>
       <c r="E49" s="1">
-        <v>296.98543405532803</v>
+        <v>293.4845335</v>
       </c>
       <c r="F49" s="1">
-        <v>294.11314558982798</v>
+        <v>300.80607930000002</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="4"/>
-        <v>-3.5995203511451592</v>
+        <v>-7.6232235908790358E-2</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="5"/>
-        <v>0.97659302502097489</v>
+        <v>2.4339753428646986</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.45">
@@ -1747,21 +1806,21 @@
         <v>2</v>
       </c>
       <c r="D50" s="1">
-        <v>574.90111565589905</v>
+        <v>584.45763620000002</v>
       </c>
       <c r="E50" s="1">
-        <v>561.32839250564496</v>
+        <v>581.23957289999998</v>
       </c>
       <c r="F50" s="1">
-        <v>606.58675003051701</v>
+        <v>623.20541530000003</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="4"/>
-        <v>5.2235948729549193</v>
+        <v>6.2174971764883509</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="5"/>
-        <v>-7.461151685656688</v>
+        <v>6.7338699840723422</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.45">
@@ -1769,35 +1828,602 @@
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>1147.3579795360499</v>
+        <v>1136.5505029999999</v>
       </c>
       <c r="E51" s="1">
-        <v>1158.19151115417</v>
+        <v>1152.1473309999999</v>
       </c>
       <c r="F51" s="1">
-        <v>1147.2181239128099</v>
+        <v>1175.8128730000001</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="4"/>
-        <v>-1.2190848481637317E-2</v>
+        <v>3.3391682385501724</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="5"/>
-        <v>0.95652143325048655</v>
+        <v>2.0126962838584461</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4" cm="1">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" cm="1">
         <f t="array" ref="G52">SUM(Tabela332[% FASTER NO_TORCPY]/10)</f>
-        <v>-2.1493066963311493</v>
-      </c>
-      <c r="H52" s="4" cm="1">
-        <f t="array" ref="H52">SUM(Tabela332[% SLOWER TORC_MAP]/10)</f>
-        <v>-1.0002081819168696</v>
+        <v>0.58956055473652103</v>
+      </c>
+      <c r="H52" s="1" cm="1">
+        <f t="array" ref="H52">SUM(Tabela332[% FASTER TORC_MAP]/10)</f>
+        <v>2.4204469118482508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="4">
+        <v>96</v>
+      </c>
+      <c r="B71">
+        <f>(C71+D71+E71)/3</f>
+        <v>28.186615387598636</v>
+      </c>
+      <c r="C71" s="7">
+        <v>28.813753366470301</v>
+      </c>
+      <c r="D71">
+        <v>27.403955698013299</v>
+      </c>
+      <c r="E71">
+        <v>28.3421370983123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="5">
+        <v>65</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B80" si="6">(C72+D72+E72)/3</f>
+        <v>39.188588301340673</v>
+      </c>
+      <c r="C72" s="8">
+        <v>39.340156555175703</v>
+      </c>
+      <c r="D72">
+        <v>38.195333719253497</v>
+      </c>
+      <c r="E72">
+        <v>40.030274629592803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="4">
+        <v>64</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>41.058056195576938</v>
+      </c>
+      <c r="C73" s="7">
+        <v>40.397493600845301</v>
+      </c>
+      <c r="D73">
+        <v>42.326999187469397</v>
+      </c>
+      <c r="E73">
+        <v>40.449675798416102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="5">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="6"/>
+        <v>75.058801730473803</v>
+      </c>
+      <c r="C74" s="8">
+        <v>76.809633731841998</v>
+      </c>
+      <c r="D74">
+        <v>71.258037567138601</v>
+      </c>
+      <c r="E74">
+        <v>77.108733892440796</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="4">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="6"/>
+        <v>76.030074914296435</v>
+      </c>
+      <c r="C75" s="7">
+        <v>79.858301877975407</v>
+      </c>
+      <c r="D75">
+        <v>74.466809272766099</v>
+      </c>
+      <c r="E75">
+        <v>73.765113592147799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="5">
+        <v>16</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>82.231000900268498</v>
+      </c>
+      <c r="C76" s="8">
+        <v>86.824947595596299</v>
+      </c>
+      <c r="D76">
+        <v>82.930469274520803</v>
+      </c>
+      <c r="E76">
+        <v>76.937585830688406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="4">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>153.127964973449</v>
+      </c>
+      <c r="C77" s="7">
+        <v>150.98461818695</v>
+      </c>
+      <c r="D77">
+        <v>149.437199831008</v>
+      </c>
+      <c r="E77">
+        <v>158.96207690238899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="5">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="6"/>
+        <v>301.03539053598973</v>
+      </c>
+      <c r="C78" s="8">
+        <v>304.69980812072703</v>
+      </c>
+      <c r="D78">
+        <v>299.93067431449799</v>
+      </c>
+      <c r="E78">
+        <v>298.47568917274401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="4">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="6"/>
+        <v>584.45763619740762</v>
+      </c>
+      <c r="C79" s="7">
+        <v>574.90111565589905</v>
+      </c>
+      <c r="D79">
+        <v>592.40464091300896</v>
+      </c>
+      <c r="E79">
+        <v>586.06715202331497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="5">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="6"/>
+        <v>1136.5505027770932</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1147.3579795360499</v>
+      </c>
+      <c r="D80">
+        <v>1134.93759751319</v>
+      </c>
+      <c r="E80">
+        <v>1127.35593128204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" s="4">
+        <v>96</v>
+      </c>
+      <c r="B83">
+        <f>(C83+D83+E83)/3</f>
+        <v>28.562558968861833</v>
+      </c>
+      <c r="C83" s="7">
+        <v>28.725849866867001</v>
+      </c>
+      <c r="D83">
+        <v>28.781089782714801</v>
+      </c>
+      <c r="E83">
+        <v>28.180737257003699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" s="5">
+        <v>65</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:B92" si="7">(C84+D84+E84)/3</f>
+        <v>38.71733919779453</v>
+      </c>
+      <c r="C84" s="8">
+        <v>39.820995092391897</v>
+      </c>
+      <c r="D84">
+        <v>38.4277245998382</v>
+      </c>
+      <c r="E84">
+        <v>37.903297901153501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" s="4">
+        <v>64</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="7"/>
+        <v>39.4531901677449</v>
+      </c>
+      <c r="C85" s="7">
+        <v>38.4539184570312</v>
+      </c>
+      <c r="D85">
+        <v>38.885028123855498</v>
+      </c>
+      <c r="E85">
+        <v>41.020623922348001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" s="5">
+        <v>33</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="7"/>
+        <v>71.734265168507861</v>
+      </c>
+      <c r="C86" s="8">
+        <v>72.981305837631197</v>
+      </c>
+      <c r="D86">
+        <v>72.338082313537598</v>
+      </c>
+      <c r="E86">
+        <v>69.883407354354802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" s="4">
+        <v>32</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="7"/>
+        <v>73.807288010915059</v>
+      </c>
+      <c r="C87" s="7">
+        <v>71.353382587432804</v>
+      </c>
+      <c r="D87">
+        <v>75.526950597763005</v>
+      </c>
+      <c r="E87">
+        <v>74.541530847549396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="5">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="7"/>
+        <v>78.912670532862293</v>
+      </c>
+      <c r="C88" s="8">
+        <v>81.003350257873507</v>
+      </c>
+      <c r="D88">
+        <v>78.382187128067002</v>
+      </c>
+      <c r="E88">
+        <v>77.352474212646399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="4">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="7"/>
+        <v>151.19525297482767</v>
+      </c>
+      <c r="C89" s="7">
+        <v>151.43423056602401</v>
+      </c>
+      <c r="D89">
+        <v>150.38002038002</v>
+      </c>
+      <c r="E89">
+        <v>151.77150797843899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" s="5">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="7"/>
+        <v>293.4845335483547</v>
+      </c>
+      <c r="C90" s="8">
+        <v>296.98543405532803</v>
+      </c>
+      <c r="D90">
+        <v>289.26285648345902</v>
+      </c>
+      <c r="E90">
+        <v>294.20531010627701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" s="4">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="7"/>
+        <v>581.23957292238799</v>
+      </c>
+      <c r="C91" s="7">
+        <v>561.32839250564496</v>
+      </c>
+      <c r="D91">
+        <v>587.06899070739701</v>
+      </c>
+      <c r="E91">
+        <v>595.32133555412202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="5">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="7"/>
+        <v>1152.1473308404231</v>
+      </c>
+      <c r="C92" s="8">
+        <v>1158.19151115417</v>
+      </c>
+      <c r="D92">
+        <v>1159.5043864250099</v>
+      </c>
+      <c r="E92">
+        <v>1138.7460949420899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" s="4">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <f>(C96+D96+E96)/3</f>
+        <v>28.066862583160361</v>
+      </c>
+      <c r="C96" s="7">
+        <v>27.853418588638299</v>
+      </c>
+      <c r="D96">
+        <v>27.916335344314501</v>
+      </c>
+      <c r="E96">
+        <v>28.430833816528299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" s="5">
+        <v>65</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97:B105" si="8">(C97+D97+E97)/3</f>
+        <v>38.803967714309664</v>
+      </c>
+      <c r="C97" s="8">
+        <v>39.104621648788402</v>
+      </c>
+      <c r="D97">
+        <v>38.741544008254998</v>
+      </c>
+      <c r="E97">
+        <v>38.565737485885599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" s="4">
+        <v>64</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="8"/>
+        <v>39.539218425750704</v>
+      </c>
+      <c r="C98" s="7">
+        <v>40.724493026733398</v>
+      </c>
+      <c r="D98">
+        <v>38.294193983078003</v>
+      </c>
+      <c r="E98">
+        <v>39.598968267440704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" s="5">
+        <v>33</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="8"/>
+        <v>75.059882720311421</v>
+      </c>
+      <c r="C99" s="8">
+        <v>72.495656490325899</v>
+      </c>
+      <c r="D99">
+        <v>75.548486232757497</v>
+      </c>
+      <c r="E99">
+        <v>77.135505437850895</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" s="4">
+        <v>32</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="8"/>
+        <v>76.004185517628926</v>
+      </c>
+      <c r="C100" s="7">
+        <v>74.347388744354205</v>
+      </c>
+      <c r="D100">
+        <v>76.276735067367497</v>
+      </c>
+      <c r="E100">
+        <v>77.388432741165104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" s="5">
+        <v>16</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="8"/>
+        <v>80.914210875828999</v>
+      </c>
+      <c r="C101" s="8">
+        <v>79.841888427734304</v>
+      </c>
+      <c r="D101">
+        <v>84.209939479827796</v>
+      </c>
+      <c r="E101">
+        <v>78.690804719924898</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" s="4">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="8"/>
+        <v>158.409969806671</v>
+      </c>
+      <c r="C102" s="7">
+        <v>154.462168931961</v>
+      </c>
+      <c r="D102">
+        <v>162.78553104400601</v>
+      </c>
+      <c r="E102">
+        <v>157.98220944404599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" s="5">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="8"/>
+        <v>300.80607930819133</v>
+      </c>
+      <c r="C103" s="8">
+        <v>294.11314558982798</v>
+      </c>
+      <c r="D103">
+        <v>292.09741353988602</v>
+      </c>
+      <c r="E103">
+        <v>316.20767879485999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" s="4">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="8"/>
+        <v>623.20541532834329</v>
+      </c>
+      <c r="C104" s="7">
+        <v>606.58675003051701</v>
+      </c>
+      <c r="D104">
+        <v>631.86411261558499</v>
+      </c>
+      <c r="E104">
+        <v>631.165383338928</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" s="5">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="8"/>
+        <v>1175.8128729661269</v>
+      </c>
+      <c r="C105" s="8">
+        <v>1147.2181239128099</v>
+      </c>
+      <c r="D105">
+        <v>1206.6539056301101</v>
+      </c>
+      <c r="E105">
+        <v>1173.5665893554601</v>
       </c>
     </row>
   </sheetData>

--- a/tempos/Livro1.xlsx
+++ b/tempos/Livro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinto\Desktop\faculdade\Mestrado\tese\tempos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinto\Desktop\faculdade\Mestrado\tese\torcpy\tempos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98754D8B-D18D-4DA5-9B6B-E1BB75078008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9853CEA0-DC29-4DA1-A65D-2CC53F13533A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8EBD9DCE-4E05-454A-9645-960691A486AE}"/>
   </bookViews>
@@ -183,12 +183,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,6 +201,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,13 +329,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -350,14 +343,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -377,14 +362,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -404,14 +381,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -436,12 +405,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -461,12 +424,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -486,56 +443,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -550,7 +457,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -577,7 +483,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -604,7 +509,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -681,6 +585,96 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -730,14 +724,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}" name="Tabela3" displayName="Tabela3" ref="C8:H19" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="C8:H18" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="39" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="38" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="37" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="36" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="35" totalsRowDxfId="1">
       <calculatedColumnFormula>100 - (D9*100/F9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="34" totalsRowDxfId="0">
       <calculatedColumnFormula>100 - (E9*100/F9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -746,17 +740,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H34" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H34" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="C23:H33" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="31" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="30" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="29" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="28" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="27" totalsRowDxfId="7">
       <calculatedColumnFormula>100 - (D24*100/F24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="26" totalsRowDxfId="6">
       <calculatedColumnFormula>(E24*100/F24) - 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,15 +762,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}" name="Tabela332" displayName="Tabela332" ref="C41:H52" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="C41:H51" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{547AC1A3-2A11-4C9B-B162-7377C62A83AA}" name="THREADS" dataDxfId="23" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{829B1D67-909C-47B5-BDFB-6BCABB018C83}" name="NO_TORCPY" dataDxfId="22" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{77F01A88-0E90-4311-A77A-9CFB20F91830}" name="WITH_TORCPY_MAP" dataDxfId="21" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{907655F2-A1EC-4098-AD88-83A40E44C685}" name="WITH_TORCPY_MINE" dataDxfId="20" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{CD390048-0FDB-44C7-8D50-5BC3B37B5032}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{547AC1A3-2A11-4C9B-B162-7377C62A83AA}" name="THREADS" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{829B1D67-909C-47B5-BDFB-6BCABB018C83}" name="NO_TORCPY" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{77F01A88-0E90-4311-A77A-9CFB20F91830}" name="WITH_TORCPY_MAP" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{907655F2-A1EC-4098-AD88-83A40E44C685}" name="WITH_TORCPY_MINE" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{CD390048-0FDB-44C7-8D50-5BC3B37B5032}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>100 - (D42*100/F42)</calculatedColumnFormula>
       <totalsRowFormula array="1">SUM(Tabela332[% FASTER NO_TORCPY]/10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5588AC35-A2AA-4678-A606-34333CE63B29}" name="% FASTER TORC_MAP" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{5588AC35-A2AA-4678-A606-34333CE63B29}" name="% FASTER TORC_MAP" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>100 - (E42*100/F42)</calculatedColumnFormula>
       <totalsRowFormula array="1">SUM(Tabela332[% FASTER TORC_MAP]/10)</totalsRowFormula>
     </tableColumn>
@@ -1084,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF78862-5946-4DF0-A9D6-D2FEDB594540}">
   <dimension ref="A7:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1099,14 +1093,14 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
@@ -1289,7 +1283,9 @@
       <c r="D16" s="1">
         <v>455.053920269012</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>422.91416358947703</v>
+      </c>
       <c r="F16" s="1">
         <v>528.11886239051796</v>
       </c>
@@ -1299,7 +1295,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>19.920647849015324</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.45">
@@ -1309,7 +1305,9 @@
       <c r="D17" s="1">
         <v>908.74222230911198</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>840.98867583274796</v>
+      </c>
       <c r="F17" s="1">
         <v>1001.4141502380299</v>
       </c>
@@ -1319,7 +1317,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>16.019892905163147</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.45">
@@ -1329,7 +1327,9 @@
       <c r="D18" s="1">
         <v>1815.25799417495</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1671.47953772544</v>
+      </c>
       <c r="F18" s="1">
         <v>1819.75348329544</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>8.1480237258008685</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.45">
@@ -1351,14 +1351,14 @@
       <c r="H19" s="1"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C23" s="1" t="s">
@@ -1538,48 +1538,66 @@
       <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="e">
+      <c r="D31" s="1">
+        <v>232.33247137069699</v>
+      </c>
+      <c r="E31" s="1">
+        <v>840.71224308013905</v>
+      </c>
+      <c r="F31" s="1">
+        <v>272.01527166366498</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="1" t="e">
+        <v>14.588445733309428</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>209.06803060662088</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <v>2</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="e">
+      <c r="D32" s="1">
+        <v>458.91870522498999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>838.62787389755204</v>
+      </c>
+      <c r="F32" s="1">
+        <v>502.93945813178999</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="1" t="e">
+        <v>8.7526942249309201</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>66.745293163655191</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="e">
+      <c r="D33" s="1">
+        <v>912.860241413116</v>
+      </c>
+      <c r="E33" s="1">
+        <v>837.86044883728005</v>
+      </c>
+      <c r="F33" s="1">
+        <v>916.53135657310395</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="1" t="e">
+        <v>0.40054441494660864</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-8.5835478700885091</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.45">
@@ -1591,19 +1609,19 @@
       <c r="H34" s="1"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C41" s="1" t="s">
@@ -1860,25 +1878,25 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>96</v>
       </c>
       <c r="B71">
         <f>(C71+D71+E71)/3</f>
         <v>28.186615387598636</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="5">
         <v>28.813753366470301</v>
       </c>
       <c r="D71">
@@ -1889,14 +1907,14 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>65</v>
       </c>
       <c r="B72">
         <f t="shared" ref="B72:B80" si="6">(C72+D72+E72)/3</f>
         <v>39.188588301340673</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="6">
         <v>39.340156555175703</v>
       </c>
       <c r="D72">
@@ -1907,14 +1925,14 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>64</v>
       </c>
       <c r="B73">
         <f t="shared" si="6"/>
         <v>41.058056195576938</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="5">
         <v>40.397493600845301</v>
       </c>
       <c r="D73">
@@ -1925,14 +1943,14 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>33</v>
       </c>
       <c r="B74">
         <f t="shared" si="6"/>
         <v>75.058801730473803</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="6">
         <v>76.809633731841998</v>
       </c>
       <c r="D74">
@@ -1943,14 +1961,14 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="4">
+      <c r="A75" s="2">
         <v>32</v>
       </c>
       <c r="B75">
         <f t="shared" si="6"/>
         <v>76.030074914296435</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="5">
         <v>79.858301877975407</v>
       </c>
       <c r="D75">
@@ -1961,14 +1979,14 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>16</v>
       </c>
       <c r="B76">
         <f t="shared" si="6"/>
         <v>82.231000900268498</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="6">
         <v>86.824947595596299</v>
       </c>
       <c r="D76">
@@ -1979,14 +1997,14 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="4">
+      <c r="A77" s="2">
         <v>8</v>
       </c>
       <c r="B77">
         <f t="shared" si="6"/>
         <v>153.127964973449</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="5">
         <v>150.98461818695</v>
       </c>
       <c r="D77">
@@ -1997,14 +2015,14 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>4</v>
       </c>
       <c r="B78">
         <f t="shared" si="6"/>
         <v>301.03539053598973</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="6">
         <v>304.69980812072703</v>
       </c>
       <c r="D78">
@@ -2015,14 +2033,14 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="4">
+      <c r="A79" s="2">
         <v>2</v>
       </c>
       <c r="B79">
         <f t="shared" si="6"/>
         <v>584.45763619740762</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="5">
         <v>574.90111565589905</v>
       </c>
       <c r="D79">
@@ -2033,14 +2051,14 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>1</v>
       </c>
       <c r="B80">
         <f t="shared" si="6"/>
         <v>1136.5505027770932</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="6">
         <v>1147.3579795360499</v>
       </c>
       <c r="D80">
@@ -2051,22 +2069,22 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="4">
+      <c r="A83" s="2">
         <v>96</v>
       </c>
       <c r="B83">
         <f>(C83+D83+E83)/3</f>
         <v>28.562558968861833</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="5">
         <v>28.725849866867001</v>
       </c>
       <c r="D83">
@@ -2077,14 +2095,14 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>65</v>
       </c>
       <c r="B84">
         <f t="shared" ref="B84:B92" si="7">(C84+D84+E84)/3</f>
         <v>38.71733919779453</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="6">
         <v>39.820995092391897</v>
       </c>
       <c r="D84">
@@ -2095,14 +2113,14 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="4">
+      <c r="A85" s="2">
         <v>64</v>
       </c>
       <c r="B85">
         <f t="shared" si="7"/>
         <v>39.4531901677449</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="5">
         <v>38.4539184570312</v>
       </c>
       <c r="D85">
@@ -2113,14 +2131,14 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>33</v>
       </c>
       <c r="B86">
         <f t="shared" si="7"/>
         <v>71.734265168507861</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="6">
         <v>72.981305837631197</v>
       </c>
       <c r="D86">
@@ -2131,14 +2149,14 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="4">
+      <c r="A87" s="2">
         <v>32</v>
       </c>
       <c r="B87">
         <f t="shared" si="7"/>
         <v>73.807288010915059</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="5">
         <v>71.353382587432804</v>
       </c>
       <c r="D87">
@@ -2149,14 +2167,14 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>16</v>
       </c>
       <c r="B88">
         <f t="shared" si="7"/>
         <v>78.912670532862293</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="6">
         <v>81.003350257873507</v>
       </c>
       <c r="D88">
@@ -2167,14 +2185,14 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="4">
+      <c r="A89" s="2">
         <v>8</v>
       </c>
       <c r="B89">
         <f t="shared" si="7"/>
         <v>151.19525297482767</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="5">
         <v>151.43423056602401</v>
       </c>
       <c r="D89">
@@ -2185,14 +2203,14 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>4</v>
       </c>
       <c r="B90">
         <f t="shared" si="7"/>
         <v>293.4845335483547</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="6">
         <v>296.98543405532803</v>
       </c>
       <c r="D90">
@@ -2203,14 +2221,14 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="4">
+      <c r="A91" s="2">
         <v>2</v>
       </c>
       <c r="B91">
         <f t="shared" si="7"/>
         <v>581.23957292238799</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="5">
         <v>561.32839250564496</v>
       </c>
       <c r="D91">
@@ -2221,14 +2239,14 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>1</v>
       </c>
       <c r="B92">
         <f t="shared" si="7"/>
         <v>1152.1473308404231</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="6">
         <v>1158.19151115417</v>
       </c>
       <c r="D92">
@@ -2239,22 +2257,22 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="4">
+      <c r="A96" s="2">
         <v>96</v>
       </c>
       <c r="B96">
         <f>(C96+D96+E96)/3</f>
         <v>28.066862583160361</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="5">
         <v>27.853418588638299</v>
       </c>
       <c r="D96">
@@ -2265,14 +2283,14 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>65</v>
       </c>
       <c r="B97">
         <f t="shared" ref="B97:B105" si="8">(C97+D97+E97)/3</f>
         <v>38.803967714309664</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="6">
         <v>39.104621648788402</v>
       </c>
       <c r="D97">
@@ -2283,14 +2301,14 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="4">
+      <c r="A98" s="2">
         <v>64</v>
       </c>
       <c r="B98">
         <f t="shared" si="8"/>
         <v>39.539218425750704</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="5">
         <v>40.724493026733398</v>
       </c>
       <c r="D98">
@@ -2301,14 +2319,14 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>33</v>
       </c>
       <c r="B99">
         <f t="shared" si="8"/>
         <v>75.059882720311421</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="6">
         <v>72.495656490325899</v>
       </c>
       <c r="D99">
@@ -2319,14 +2337,14 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="4">
+      <c r="A100" s="2">
         <v>32</v>
       </c>
       <c r="B100">
         <f t="shared" si="8"/>
         <v>76.004185517628926</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="5">
         <v>74.347388744354205</v>
       </c>
       <c r="D100">
@@ -2337,14 +2355,14 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>16</v>
       </c>
       <c r="B101">
         <f t="shared" si="8"/>
         <v>80.914210875828999</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="6">
         <v>79.841888427734304</v>
       </c>
       <c r="D101">
@@ -2355,14 +2373,14 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="4">
+      <c r="A102" s="2">
         <v>8</v>
       </c>
       <c r="B102">
         <f t="shared" si="8"/>
         <v>158.409969806671</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="5">
         <v>154.462168931961</v>
       </c>
       <c r="D102">
@@ -2373,14 +2391,14 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>4</v>
       </c>
       <c r="B103">
         <f t="shared" si="8"/>
         <v>300.80607930819133</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="6">
         <v>294.11314558982798</v>
       </c>
       <c r="D103">
@@ -2391,14 +2409,14 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104" s="4">
+      <c r="A104" s="2">
         <v>2</v>
       </c>
       <c r="B104">
         <f t="shared" si="8"/>
         <v>623.20541532834329</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="5">
         <v>606.58675003051701</v>
       </c>
       <c r="D104">
@@ -2409,14 +2427,14 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>1</v>
       </c>
       <c r="B105">
         <f t="shared" si="8"/>
         <v>1175.8128729661269</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="6">
         <v>1147.2181239128099</v>
       </c>
       <c r="D105">

--- a/tempos/Livro1.xlsx
+++ b/tempos/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\tese_torcpy-main\tempos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37133DE-3B1A-4A1F-8291-D944395CE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1DB995-338D-473C-B29D-C403977EBACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EBD9DCE-4E05-454A-9645-960691A486AE}"/>
   </bookViews>
@@ -538,12 +538,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,9 +554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,10 +583,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,35 +646,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,77 +679,8 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -781,8 +712,20 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -795,12 +738,69 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1186,12 +1186,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1218,12 +1215,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1634,12 +1628,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1674,12 +1665,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1712,12 +1700,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1759,12 +1744,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1791,12 +1773,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1829,12 +1808,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1871,12 +1847,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1911,7 +1884,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="LID4096"/>
     </a:p>
@@ -13005,15 +12985,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1562099</xdr:colOff>
+      <xdr:colOff>1314449</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13041,15 +13021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533398</xdr:colOff>
+      <xdr:colOff>476248</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13117,15 +13097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:colOff>819150</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13231,15 +13211,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13346,17 +13326,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}" name="Tabela3" displayName="Tabela3" ref="C8:H19" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}" name="Tabela3" displayName="Tabela3" ref="C8:H19" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="C8:H18" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>100 - (D9*100/F9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="6" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>100 - (E9*100/F9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13365,17 +13345,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H34" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H34" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="C23:H33" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>100 - (D24*100/F24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>(E24*100/F24) - 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13384,18 +13364,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}" name="Tabela332" displayName="Tabela332" ref="C41:H52" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}" name="Tabela332" displayName="Tabela332" ref="C41:H52" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="C41:H51" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{547AC1A3-2A11-4C9B-B162-7377C62A83AA}" name="THREADS" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{829B1D67-909C-47B5-BDFB-6BCABB018C83}" name="NO_TORCPY" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{77F01A88-0E90-4311-A77A-9CFB20F91830}" name="WITH_TORCPY_MAP" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{907655F2-A1EC-4098-AD88-83A40E44C685}" name="WITH_TORCPY_MINE" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{CD390048-0FDB-44C7-8D50-5BC3B37B5032}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{547AC1A3-2A11-4C9B-B162-7377C62A83AA}" name="THREADS" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{829B1D67-909C-47B5-BDFB-6BCABB018C83}" name="NO_TORCPY" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{77F01A88-0E90-4311-A77A-9CFB20F91830}" name="WITH_TORCPY_MAP" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{907655F2-A1EC-4098-AD88-83A40E44C685}" name="WITH_TORCPY_MINE" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{CD390048-0FDB-44C7-8D50-5BC3B37B5032}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>100 - (D42*100/F42)</calculatedColumnFormula>
       <totalsRowFormula array="1">SUM(Tabela332[% FASTER NO_TORCPY]/10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5588AC35-A2AA-4678-A606-34333CE63B29}" name="% FASTER TORC_MAP" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="6" xr3:uid="{5588AC35-A2AA-4678-A606-34333CE63B29}" name="% FASTER TORC_MAP" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>100 - (E42*100/F42)</calculatedColumnFormula>
       <totalsRowFormula array="1">SUM(Tabela332[% FASTER TORC_MAP]/10)</totalsRowFormula>
     </tableColumn>
@@ -13703,8 +13683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF78862-5946-4DF0-A9D6-D2FEDB594540}">
   <dimension ref="C5:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E30" workbookViewId="0">
-      <selection activeCell="T97" sqref="T97"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13719,46 +13699,46 @@
   <sheetData>
     <row r="5" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="32"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
     </row>
     <row r="7" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="10" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="J7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
     </row>
     <row r="8" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
@@ -13779,32 +13759,32 @@
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="33" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="33" t="s">
+      <c r="Q8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13829,42 +13809,42 @@
         <f t="shared" ref="H9:H18" si="1">100 - (E9*100/F9)</f>
         <v>9.8939638791189424</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <v>96</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="14">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>66.257705195350468</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <f>K9/J9</f>
         <v>0.69018442911823408</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="21">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>2630.105690002435</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="14">
         <f>E18/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>61.235605954705377</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="15">
         <f>N9/J9</f>
         <v>0.63787089536151431</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="21">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>2620.4041442871076</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="14">
         <f>F18/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>60.071627697667971</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="15">
         <f>Q9/J9</f>
         <v>0.62574612185070799</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="16">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2908.1338577270499</v>
       </c>
@@ -13890,42 +13870,42 @@
         <f t="shared" si="1"/>
         <v>19.931324105279273</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
         <v>65</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>52.69742013641136</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <f t="shared" ref="L10:L18" si="2">K10/J10</f>
         <v>0.81072954056017477</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="22">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>2239.0426194667766</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <f>E18/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>48.784029138650908</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <f t="shared" ref="O10:O18" si="3">N10/J10</f>
         <v>0.75052352521001398</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="22">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>2227.0848035812351</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <f>F18/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>42.525732993275305</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="3">
         <f t="shared" ref="R10:R18" si="4">Q10/J10</f>
         <v>0.65424204605038927</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="12">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2781.4682567119567</v>
       </c>
@@ -13951,42 +13931,42 @@
         <f t="shared" si="1"/>
         <v>11.259404352921763</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>64</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>46.715507505533687</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <f t="shared" si="2"/>
         <v>0.72992980477396385</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="23">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>2486.893920898432</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="4">
         <f>E18/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>46.653110815254855</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <f t="shared" si="3"/>
         <v>0.72895485648835712</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="23">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>2292.9808654785152</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="4">
         <f>F18/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>45.07279005272509</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="2">
         <f t="shared" si="4"/>
         <v>0.70426234457382952</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="11">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2583.9142150878847</v>
       </c>
@@ -14012,42 +13992,42 @@
         <f t="shared" si="1"/>
         <v>20.266831233393077</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="9">
         <v>33</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>28.540394580442715</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.86486044183159738</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="22">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>2098.9027898311606</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="5">
         <f>E18/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>29.023904389826257</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <f t="shared" si="3"/>
         <v>0.87951225423715929</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="22">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1900.4619090557069</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="5">
         <f>F18/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>25.194535391068346</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="3">
         <f t="shared" si="4"/>
         <v>0.76347076942631353</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="12">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2383.5273807048793</v>
       </c>
@@ -14073,42 +14053,42 @@
         <f t="shared" si="1"/>
         <v>12.780573186603732</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>32</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>27.226111245420444</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <f t="shared" si="2"/>
         <v>0.85081597641938889</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="23">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>2133.5494918823233</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="4">
         <f>E18/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>28.231717286821123</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <f t="shared" si="3"/>
         <v>0.88224116521316009</v>
       </c>
-      <c r="P13" s="38">
+      <c r="P13" s="23">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1894.58348083496</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="4">
         <f>F18/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>26.807852150765918</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="2">
         <f t="shared" si="4"/>
         <v>0.83774537971143492</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="11">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2172.2035446166974</v>
       </c>
@@ -14134,42 +14114,42 @@
         <f t="shared" si="1"/>
         <v>21.77764619123927</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
         <v>16</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>15.646405596819147</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <f t="shared" si="2"/>
         <v>0.97790034980119667</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="22">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>1856.281158447264</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="5">
         <f>E18/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>15.369153255920182</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <f t="shared" si="3"/>
         <v>0.96057207849501136</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="22">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1740.0875740051199</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="5">
         <f>F18/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>13.088573512417195</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="3">
         <f t="shared" si="4"/>
         <v>0.8180358445260747</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="12">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2224.5400314331041</v>
       </c>
@@ -14195,42 +14175,42 @@
         <f t="shared" si="1"/>
         <v>19.403501696117303</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>8</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>7.9238630332869322</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <f t="shared" si="2"/>
         <v>0.99048287916086653</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="23">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>1832.700021743768</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="4">
         <f>E18/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>7.8338110198598274</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <f t="shared" si="3"/>
         <v>0.97922637748247843</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="23">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1706.938840866088</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="4">
         <f>F18/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>6.8738612078444925</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="2">
         <f t="shared" si="4"/>
         <v>0.85923265098056156</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="11">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2117.882137298584</v>
       </c>
@@ -14256,42 +14236,42 @@
         <f t="shared" si="1"/>
         <v>19.920647849015324</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="9">
         <v>4</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>3.989105275923857</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="3">
         <f t="shared" si="2"/>
         <v>0.99727631898096425</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="22">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>1820.215681076048</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <f>E18/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3.9522902792821712</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <f t="shared" si="3"/>
         <v>0.98807256982054281</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="22">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1691.6566543579081</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="5">
         <f>F18/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>3.4457271135107113</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="3">
         <f t="shared" si="4"/>
         <v>0.86143177837767781</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S16" s="12">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2112.4754495620718</v>
       </c>
@@ -14317,42 +14297,42 @@
         <f t="shared" si="1"/>
         <v>16.019892905163147</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <v>2</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>1.9975499647880159</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <f t="shared" si="2"/>
         <v>0.99877498239400797</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="23">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>1817.484444618224</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="4">
         <f>E18/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1.9875172945347201</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <f t="shared" si="3"/>
         <v>0.99375864726736007</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17" s="23">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1681.9773516654959</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="4">
         <f>F18/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1.8171837125158417</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="2">
         <f t="shared" si="4"/>
         <v>0.90859185625792083</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="11">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2002.8283004760599</v>
       </c>
@@ -14378,42 +14358,42 @@
         <f t="shared" si="1"/>
         <v>8.1480237258008685</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="10">
         <v>1</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <f>D18/Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>1</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="24">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[NO_TORCPY]]</f>
         <v>1815.25799417495</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="6">
         <f>Tabela3[[#This Row],[WITH_TORCPY_MAP]]/Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="24">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1671.47953772544</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="6">
         <f>Tabela3[[#This Row],[WITH_TORCPY_MINE]]/Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="13">
         <f>Tabela3[[#This Row],[THREADS]]*Tabela3[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1819.75348329544</v>
       </c>
@@ -14428,46 +14408,46 @@
     </row>
     <row r="20" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="32"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="27"/>
     </row>
     <row r="22" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="J22" s="10" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="J22" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25" t="s">
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="23"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27" t="s">
+      <c r="O22" s="31"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="29"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
     </row>
     <row r="23" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
@@ -14488,32 +14468,32 @@
       <c r="H23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="29"/>
+      <c r="K23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="N23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="35" t="s">
+      <c r="P23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="33" t="s">
+      <c r="Q23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R23" s="34" t="s">
+      <c r="R23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="35" t="s">
+      <c r="S23" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -14538,42 +14518,42 @@
         <f t="shared" ref="H24:H33" si="5">(E24*100/F24) - 100</f>
         <v>165.11702467467245</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="17">
         <v>96</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="14">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>58.720418063133842</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="15">
         <f>K24/J24</f>
         <v>0.61167102149097752</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="21">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>1492.4039382934561</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="14">
         <f>E33/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>18.793730998224191</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="15">
         <f>N24/J24</f>
         <v>0.19576803123150199</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="21">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>4279.8634872436505</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="14">
         <f>F33/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>54.50373459806444</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="15">
         <f>Q24/J24</f>
         <v>0.56774723539650462</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="16">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1614.3299331664991</v>
       </c>
@@ -14599,42 +14579,42 @@
         <f t="shared" si="5"/>
         <v>46.199104075660188</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="9">
         <v>65</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>24.073323094997193</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="3">
         <f t="shared" ref="L25:L33" si="7">K25/J25</f>
         <v>0.37035881684611066</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="22">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>2464.7995400428726</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="5">
         <f>E33/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>14.032873529409766</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="3">
         <f t="shared" ref="O25:O33" si="8">N25/J25</f>
         <v>0.21589036199091949</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="22">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3880.953466892242</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="5">
         <f>F33/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>22.442279150051082</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="3">
         <f t="shared" ref="R25:R33" si="9">Q25/J25</f>
         <v>0.34526583307770897</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="12">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2654.5672023296333</v>
       </c>
@@ -14660,42 +14640,42 @@
         <f t="shared" si="5"/>
         <v>174.25827361664909</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="8">
         <v>64</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>43.174518070690887</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="2">
         <f t="shared" si="7"/>
         <v>0.67460184485454511</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="23">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>1353.1837310790977</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="4">
         <f>E33/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>13.635604442801746</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="2">
         <f t="shared" si="8"/>
         <v>0.21305631941877728</v>
       </c>
-      <c r="P26" s="38">
+      <c r="P26" s="23">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3932.5773162841792</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="4">
         <f>F33/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>40.908143414796704</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="2">
         <f t="shared" si="9"/>
         <v>0.63918974085619851</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="11">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1433.8955993652287</v>
       </c>
@@ -14721,42 +14701,42 @@
         <f t="shared" si="5"/>
         <v>59.201087778575442</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="9">
         <v>33</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>14.187022851490944</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="3">
         <f t="shared" si="7"/>
         <v>0.42990978337851349</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="22">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>2123.3762912750221</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="5">
         <f>E33/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>7.8788628381348467</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="3">
         <f t="shared" si="8"/>
         <v>0.23875341933741959</v>
       </c>
-      <c r="P27" s="37">
+      <c r="P27" s="22">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3509.312876701335</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="5">
         <f>F33/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>13.72098243877096</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="3">
         <f t="shared" si="9"/>
         <v>0.41578734662942302</v>
       </c>
-      <c r="S27" s="15">
+      <c r="S27" s="12">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2204.3271975517255</v>
       </c>
@@ -14782,42 +14762,42 @@
         <f t="shared" si="5"/>
         <v>210.49295818056379</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="8">
         <v>32</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="4">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>26.007313308686697</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="2">
         <f t="shared" si="7"/>
         <v>0.81272854089645929</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="23">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>1123.2043609619136</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="4">
         <f>E33/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>7.5097722253872323</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="2">
         <f t="shared" si="8"/>
         <v>0.23468038204335101</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="23">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3570.2193832397438</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="4">
         <f>F33/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>25.506693152006214</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="2">
         <f t="shared" si="9"/>
         <v>0.79708416100019419</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="11">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1149.8551864624001</v>
       </c>
@@ -14843,42 +14823,42 @@
         <f t="shared" si="5"/>
         <v>220.47887040149715</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="9">
         <v>16</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="5">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>15.349663279362565</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="3">
         <f t="shared" si="7"/>
         <v>0.95935395496016029</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="22">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>951.53643417358398</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="5">
         <f>E33/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3.9303713718515723</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="3">
         <f t="shared" si="8"/>
         <v>0.24564821074072327</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="22">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3410.8143768310401</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="5">
         <f>F33/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>13.778712126339812</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="3">
         <f t="shared" si="9"/>
         <v>0.86116950789623825</v>
       </c>
-      <c r="S29" s="15">
+      <c r="S29" s="12">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1064.2868194580064</v>
       </c>
@@ -14904,42 +14884,42 @@
         <f t="shared" si="5"/>
         <v>222.10943904659865</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="8">
         <v>8</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="4">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>7.874884616210335</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="2">
         <f t="shared" si="7"/>
         <v>0.98436057702629187</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="23">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>927.36367416381597</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="4">
         <f>E33/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1.9852503647637061</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="2">
         <f t="shared" si="8"/>
         <v>0.24815629559546326</v>
       </c>
-      <c r="P30" s="38">
+      <c r="P30" s="23">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3376.3416996002161</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="4">
         <f>F33/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>6.9951071876246944</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="2">
         <f t="shared" si="9"/>
         <v>0.8743883984530868</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30" s="11">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1048.1970691680881</v>
       </c>
@@ -14965,42 +14945,42 @@
         <f t="shared" si="5"/>
         <v>209.06803060662088</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="9">
         <v>4</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="5">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>3.9291117424417448</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="3">
         <f t="shared" si="7"/>
         <v>0.98227793561043619</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="22">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>929.32988548278797</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="5">
         <f>E33/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>0.9966078830582854</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="3">
         <f t="shared" si="8"/>
         <v>0.24915197076457135</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="22">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3362.8489723205562</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="5">
         <f>F33/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>3.3694113972628532</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="3">
         <f t="shared" si="9"/>
         <v>0.8423528493157133</v>
       </c>
-      <c r="S31" s="15">
+      <c r="S31" s="12">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1088.0610866546599</v>
       </c>
@@ -15026,42 +15006,42 @@
         <f t="shared" si="5"/>
         <v>66.745293163655191</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="8">
         <v>2</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="4">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>1.9891545736092324</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="2">
         <f t="shared" si="7"/>
         <v>0.99457728680461621</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="23">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>917.83741044997998</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="4">
         <f>E33/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>0.99908490394350313</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="2">
         <f t="shared" si="8"/>
         <v>0.49954245197175157</v>
       </c>
-      <c r="P32" s="38">
+      <c r="P32" s="23">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1677.2557477951041</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="4">
         <f>F33/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1.8223492743592542</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="2">
         <f t="shared" si="9"/>
         <v>0.9111746371796271</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S32" s="11">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1005.87891626358</v>
       </c>
@@ -15087,42 +15067,42 @@
         <f t="shared" si="5"/>
         <v>-8.5835478700885091</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="10">
         <v>1</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="6">
         <f>D33/Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>1</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="7">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="24">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[NO_TORCPY]]</f>
         <v>912.860241413116</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="6">
         <f>Tabela33[[#This Row],[WITH_TORCPY_MAP]]/Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="7">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P33" s="39">
+      <c r="P33" s="24">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>837.86044883728005</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="6">
         <f>Tabela33[[#This Row],[WITH_TORCPY_MINE]]/Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="7">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S33" s="16">
+      <c r="S33" s="13">
         <f>Tabela33[[#This Row],[THREADS]]*Tabela33[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>916.53135657310395</v>
       </c>
@@ -15136,52 +15116,52 @@
       <c r="H34" s="1"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J39" s="30" t="s">
+      <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="32"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="27"/>
     </row>
     <row r="40" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="J40" s="10" t="s">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="J40" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K40" s="22" t="s">
+      <c r="K40" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="25" t="s">
+      <c r="L40" s="31"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O40" s="23"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="27" t="s">
+      <c r="O40" s="31"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R40" s="28"/>
-      <c r="S40" s="29"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="37"/>
     </row>
     <row r="41" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
@@ -15202,32 +15182,32 @@
       <c r="H41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="33" t="s">
+      <c r="J41" s="29"/>
+      <c r="K41" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="L41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="35" t="s">
+      <c r="M41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="33" t="s">
+      <c r="N41" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O41" s="34" t="s">
+      <c r="O41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P41" s="35" t="s">
+      <c r="P41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q41" s="33" t="s">
+      <c r="Q41" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R41" s="34" t="s">
+      <c r="R41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="S41" s="35" t="s">
+      <c r="S41" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15252,42 +15232,42 @@
         <f t="shared" ref="H42:H51" si="11">100 - (E42*100/F42)</f>
         <v>-1.7661268287009335</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="17">
         <v>96</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="14">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>40.3223475849897</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="15">
         <f>K42/J42</f>
         <v>0.42002445401030936</v>
       </c>
-      <c r="M42" s="36">
+      <c r="M42" s="21">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>2705.91507744</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="14">
         <f>E51/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>40.337678854689813</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="15">
         <f>N42/J42</f>
         <v>0.42018415473635223</v>
       </c>
-      <c r="P42" s="36">
+      <c r="P42" s="21">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>2742.0056611200002</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="14">
         <f>F51/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>41.893277869891513</v>
       </c>
-      <c r="R42" s="18">
+      <c r="R42" s="15">
         <f>Q42/J42</f>
         <v>0.43638831114470328</v>
       </c>
-      <c r="S42" s="19">
+      <c r="S42" s="16">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2694.4188076800001</v>
       </c>
@@ -15313,42 +15293,42 @@
         <f t="shared" si="11"/>
         <v>0.22324652635374775</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="9">
         <v>65</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="5">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>29.002078214692922</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="3">
         <f t="shared" ref="L43:L51" si="12">K43/J43</f>
         <v>0.44618581868758339</v>
       </c>
-      <c r="M43" s="37">
+      <c r="M43" s="22">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>2547.2582394999999</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="5">
         <f>E51/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>29.757916086340973</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="3">
         <f t="shared" ref="O43:O51" si="13">N43/J43</f>
         <v>0.457814093636015</v>
       </c>
-      <c r="P43" s="37">
+      <c r="P43" s="22">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>2516.6270479999998</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="5">
         <f>F51/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>30.301356855757472</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="3">
         <f t="shared" ref="R43:R51" si="14">Q43/J43</f>
         <v>0.46617472085780726</v>
       </c>
-      <c r="S43" s="15">
+      <c r="S43" s="12">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2522.2579011500002</v>
       </c>
@@ -15374,42 +15354,42 @@
         <f t="shared" si="11"/>
         <v>0.21757703722015265</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="8">
         <v>64</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="4">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>27.681546770351002</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="2">
         <f t="shared" si="12"/>
         <v>0.4325241682867344</v>
       </c>
-      <c r="M44" s="38">
+      <c r="M44" s="23">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>2627.7155968000002</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="4">
         <f>E51/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>29.202894012765707</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="2">
         <f t="shared" si="13"/>
         <v>0.45629521894946418</v>
       </c>
-      <c r="P44" s="38">
+      <c r="P44" s="23">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>2525.0041708799999</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="4">
         <f>F51/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>29.737888599939129</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R44" s="2">
         <f t="shared" si="14"/>
         <v>0.4646545093740489</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S44" s="11">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2530.5099795199999</v>
       </c>
@@ -15435,42 +15415,42 @@
         <f t="shared" si="11"/>
         <v>4.4306191663071672</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="9">
         <v>33</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="5">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>15.142134923607978</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="3">
         <f t="shared" si="12"/>
         <v>0.458852573442666</v>
       </c>
-      <c r="M45" s="37">
+      <c r="M45" s="22">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>2476.9404570900001</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="5">
         <f>E51/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>16.061324783484917</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="3">
         <f t="shared" si="13"/>
         <v>0.48670681162075508</v>
       </c>
-      <c r="P45" s="37">
+      <c r="P45" s="22">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>2367.2307506100001</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="5">
         <f>F51/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>15.664997471235058</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="3">
         <f t="shared" si="14"/>
         <v>0.474696893067729</v>
       </c>
-      <c r="S45" s="15">
+      <c r="S45" s="12">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2476.9761297600003</v>
       </c>
@@ -15496,42 +15476,42 @@
         <f t="shared" si="11"/>
         <v>2.8904954312310878</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="8">
         <v>32</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="4">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>14.948696346089132</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="2">
         <f t="shared" si="12"/>
         <v>0.46714676081528539</v>
       </c>
-      <c r="M46" s="38">
+      <c r="M46" s="23">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>2432.9623971199999</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="4">
         <f>E51/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>15.610210889253889</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="2">
         <f t="shared" si="13"/>
         <v>0.48781909028918402</v>
       </c>
-      <c r="P46" s="38">
+      <c r="P46" s="23">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>2361.8332163199998</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="4">
         <f>F51/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>15.470370019169442</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R46" s="2">
         <f t="shared" si="14"/>
         <v>0.48344906309904506</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S46" s="11">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>2432.1339366399998</v>
       </c>
@@ -15557,42 +15537,42 @@
         <f t="shared" si="11"/>
         <v>2.4736573813571425</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="9">
         <v>16</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="5">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>13.82143584002028</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="3">
         <f t="shared" si="12"/>
         <v>0.86383974000126751</v>
       </c>
-      <c r="M47" s="37">
+      <c r="M47" s="22">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>1315.6960144</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="5">
         <f>E51/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>14.600283113749033</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="3">
         <f t="shared" si="13"/>
         <v>0.91251769460931453</v>
       </c>
-      <c r="P47" s="37">
+      <c r="P47" s="22">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1262.60272848</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="5">
         <f>F51/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>14.531599087628649</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47" s="3">
         <f t="shared" si="14"/>
         <v>0.90822494297679057</v>
       </c>
-      <c r="S47" s="15">
+      <c r="S47" s="12">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1294.62737408</v>
       </c>
@@ -15618,42 +15598,42 @@
         <f t="shared" si="11"/>
         <v>4.5544587939186556</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="8">
         <v>8</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="4">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>7.4222269132878509</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="2">
         <f t="shared" si="12"/>
         <v>0.92777836416098136</v>
       </c>
-      <c r="M48" s="38">
+      <c r="M48" s="23">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>1225.0237199999999</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="4">
         <f>E51/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>7.6202612723562151</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="2">
         <f t="shared" si="13"/>
         <v>0.95253265904452689</v>
       </c>
-      <c r="P48" s="38">
+      <c r="P48" s="23">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1209.5620240000001</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="Q48" s="4">
         <f>F51/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>7.422593883986714</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R48" s="2">
         <f t="shared" si="14"/>
         <v>0.92782423549833926</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S48" s="11">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1267.2797584</v>
       </c>
@@ -15679,42 +15659,42 @@
         <f t="shared" si="11"/>
         <v>2.4339753428646986</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="9">
         <v>4</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="5">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>3.7754713859797819</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="3">
         <f t="shared" si="12"/>
         <v>0.94386784649494548</v>
       </c>
-      <c r="M49" s="37">
+      <c r="M49" s="22">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>1204.141562</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="5">
         <f>E51/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>3.9257514433890939</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="3">
         <f t="shared" si="13"/>
         <v>0.98143786084727347</v>
       </c>
-      <c r="P49" s="37">
+      <c r="P49" s="22">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1173.938134</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="5">
         <f>F51/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>3.908873370299601</v>
       </c>
-      <c r="R49" s="5">
+      <c r="R49" s="3">
         <f t="shared" si="14"/>
         <v>0.97721834257490026</v>
       </c>
-      <c r="S49" s="15">
+      <c r="S49" s="12">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1203.2243172000001</v>
       </c>
@@ -15740,42 +15720,42 @@
         <f t="shared" si="11"/>
         <v>6.7338699840723422</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="8">
         <v>2</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="4">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>1.9446242680471626</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="2">
         <f t="shared" si="12"/>
         <v>0.9723121340235813</v>
       </c>
-      <c r="M50" s="38">
+      <c r="M50" s="23">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>1168.9152724</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50" s="4">
         <f>E51/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1.9822245158765581</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="2">
         <f t="shared" si="13"/>
         <v>0.99111225793827906</v>
       </c>
-      <c r="P50" s="38">
+      <c r="P50" s="23">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1162.4791458</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50" s="4">
         <f>F51/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1.8867179972015882</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="2">
         <f t="shared" si="14"/>
         <v>0.94335899860079409</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S50" s="11">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1246.4108306000001</v>
       </c>
@@ -15801,42 +15781,42 @@
         <f t="shared" si="11"/>
         <v>2.0126962838584461</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="10">
         <v>1</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="6">
         <f>D51/Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>1</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="7">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M51" s="39">
+      <c r="M51" s="24">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[NO_TORCPY]]</f>
         <v>1136.5505029999999</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="6">
         <f>Tabela332[[#This Row],[WITH_TORCPY_MAP]]/Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O51" s="7">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="P51" s="39">
+      <c r="P51" s="24">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MAP]]</f>
         <v>1152.1473309999999</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="6">
         <f>Tabela332[[#This Row],[WITH_TORCPY_MINE]]/Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1</v>
       </c>
-      <c r="R51" s="9">
+      <c r="R51" s="7">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="S51" s="16">
+      <c r="S51" s="13">
         <f>Tabela332[[#This Row],[THREADS]]*Tabela332[[#This Row],[WITH_TORCPY_MINE]]</f>
         <v>1175.8128730000001</v>
       </c>
@@ -15857,25 +15837,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="J6:S6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
     <mergeCell ref="J39:S39"/>
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="K40:M40"/>
     <mergeCell ref="N40:P40"/>
     <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="J6:S6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="E37:G37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tempos/Livro1.xlsx
+++ b/tempos/Livro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\tese_torcpy-main\tempos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinto\Desktop\faculdade\Mestrado\tese\torcpy\tempos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1DB995-338D-473C-B29D-C403977EBACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA391B2F-CDA6-4073-B34C-ACBE786ADFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EBD9DCE-4E05-454A-9645-960691A486AE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8EBD9DCE-4E05-454A-9645-960691A486AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t>THREADS</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>First Element</t>
+  </si>
+  <si>
+    <t>mpi4py</t>
+  </si>
+  <si>
+    <t>torcpy's map</t>
+  </si>
+  <si>
+    <t>extended torcpy</t>
+  </si>
+  <si>
+    <t>first element</t>
   </si>
 </sst>
 </file>
@@ -607,20 +622,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,17 +652,191 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1224,7 +1404,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1248,7 +1428,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>My extended TorcPy</c:v>
+            <c:v>extended torcpy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1363,7 +1543,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>No TorcPy</c:v>
+            <c:v>mpi4py</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1478,7 +1658,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>TorcPy Map</c:v>
+            <c:v>torcpy's map</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1674,7 +1854,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1709,7 +1889,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88418608"/>
@@ -1782,7 +1962,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1817,7 +1997,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88421488"/>
@@ -1856,7 +2036,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1893,7 +2073,2314 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>First Index SpeedUp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.213648293963254E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88386351706036748"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>extended torcpy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$62:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$Q$62:$Q$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3475972411573724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4597465154642908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4407133462306447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4343578627634865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4406209255624904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1205580424505426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9966324626073095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7500512413244576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3953471060600355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-748B-4EC8-A7AA-36BC7D99AAE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mpi4py</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$62:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$K$62:$K$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3422462710248888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4517020239866671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4523191115001526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4678926462020965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.42665782018082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9524622784474679</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8373580177292188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6311328006121704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3391925083956726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-748B-4EC8-A7AA-36BC7D99AAE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>torcpy's map</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$62:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$N$62:$N$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.7887434471159487E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6985771547798556E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4935393849669912E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7883516822605254E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5808616366529746E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8815028059511348E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4992653735959751E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7764164721207456E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3963882099074835E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-748B-4EC8-A7AA-36BC7D99AAE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="88421488"/>
+        <c:axId val="88418608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88421488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48073950400522786"/>
+              <c:y val="0.83744398107550455"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88418608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88418608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88421488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>First Index  Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.213648293963254E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88386351706036748"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>extended torcpy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$62:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$R$62:$R$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4037471262055963E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2457638699450628E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2511146034853824E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3465389780711711E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5019403923827826E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13253487765315891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24957905782591369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43751281033111439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69767355303001777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E110-40B1-BEED-F033E082BBEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mpi4py</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$62:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$L$62:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3981731989842592E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.233387729210257E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2692486117189884E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4481595339457468E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4583056880650625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12202889240296674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22966975221615235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40778320015304259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6695962541978363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E110-40B1-BEED-F033E082BBEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>torcpy's map</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$62:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$O$62:$O$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.1549410907457802E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0305503315045932E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0146155289010924E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1479853582607653E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1190192614540545E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1759392537194593E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1874081716994969E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1941041180301864E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1981941049537417E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E110-40B1-BEED-F033E082BBEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="88421488"/>
+        <c:axId val="88418608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88421488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47441293632530762"/>
+              <c:y val="0.8367412600876204"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88418608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88418608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88421488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>First Index Cost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.213648293963254E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88386351706036748"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>extended torcpy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$62:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$S$62:$S$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>550.7780227661126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344.27175402641257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343.45344543457026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177.87786340713478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171.73773956298817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.335819244384638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.978282928466719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.67155265808104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.081874370574941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7315306663513104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E528-4DE2-B7E9-1E97E7DB3510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mpi4py</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$62:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$62:$M$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>477.90834045410111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>299.18613076209976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294.45809936523392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.2191250324249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.87725830078111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.757411956787038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.09388923645016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.386124610900879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9791274070739604</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6819863319396902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E528-4DE2-B7E9-1E97E7DB3510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>torcpy's map</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$62:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$P$62:$P$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4382.8913955688413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3893.5616540908813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3954.7110595703102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3495.2634408473764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3585.7392196655042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3412.1756210327039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3379.2181568145679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3360.2691698074318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3348.7990274429199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.01251125335693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E528-4DE2-B7E9-1E97E7DB3510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="88421488"/>
+        <c:axId val="88418608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88421488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47441293632530762"/>
+              <c:y val="0.8367412600876204"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88418608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88418608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88421488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1969,7 +4456,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1993,7 +4480,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>My extended TorcPy</c:v>
+            <c:v>extended torcpy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2108,7 +4595,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>No TorcPy</c:v>
+            <c:v>mpi4py</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2223,7 +4710,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>TorcPy Map</c:v>
+            <c:v>torcpy's map</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2425,7 +4912,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2463,7 +4950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88418608"/>
@@ -2542,7 +5029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2580,7 +5067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88421488"/>
@@ -2622,7 +5109,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2652,7 +5139,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2728,7 +5215,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2752,7 +5239,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>My extended TorcPy</c:v>
+            <c:v>extended torcpy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2864,10 +5351,125 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>TorcPy Map</c:v>
+            <c:v>mpi4py</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$9:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$9:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2630.105690002435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2239.0426194667766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2486.893920898432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2098.9027898311606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2133.5494918823233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1856.281158447264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1832.700021743768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1820.215681076048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1817.484444618224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1815.25799417495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFC8-4648-AE40-DF626ECB5593}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>torcpy's map</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2975,121 +5577,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EFC8-4648-AE40-DF626ECB5593}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>No TorcPy</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Folha1!$J$9:$J$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Folha1!$M$9:$M$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2630.105690002435</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2239.0426194667766</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2486.893920898432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2098.9027898311606</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2133.5494918823233</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1856.281158447264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1832.700021743768</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1820.215681076048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1817.484444618224</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1815.25799417495</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFC8-4648-AE40-DF626ECB5593}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3184,7 +5671,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3222,7 +5709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88418608"/>
@@ -3301,7 +5788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3339,7 +5826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88421488"/>
@@ -3381,7 +5868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3411,7 +5898,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3487,7 +5974,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3511,7 +5998,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>My extended TorcPy</c:v>
+            <c:v>extended torcpy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3626,7 +6113,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>No TorcPy</c:v>
+            <c:v>mpi4py</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3741,7 +6228,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>TorcPy Map</c:v>
+            <c:v>torcpy's map</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3943,7 +6430,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3981,7 +6468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88418608"/>
@@ -4060,7 +6547,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4098,7 +6585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88421488"/>
@@ -4140,7 +6627,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4170,7 +6657,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4246,7 +6733,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4270,7 +6757,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>My extended TorcPy</c:v>
+            <c:v>extended torcpy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4385,7 +6872,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>No TorcPy</c:v>
+            <c:v>mpi4py</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4500,7 +6987,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>TorcPy Map</c:v>
+            <c:v>torcpy's map</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4702,7 +7189,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4740,7 +7227,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88418608"/>
@@ -4819,7 +7306,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4857,7 +7344,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88421488"/>
@@ -4899,7 +7386,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4929,7 +7416,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5005,7 +7492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5461,7 +7948,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5499,7 +7986,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88418608"/>
@@ -5578,7 +8065,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5616,7 +8103,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88421488"/>
@@ -5658,7 +8145,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5688,7 +8175,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5764,7 +8251,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5788,7 +8275,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>My extended TorcPy</c:v>
+            <c:v>extended torcpy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5903,7 +8390,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>No TorcPy</c:v>
+            <c:v>mpi4py</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6018,7 +8505,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>TorcPy Map</c:v>
+            <c:v>torcpy's map</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6220,7 +8707,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6258,7 +8745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88418608"/>
@@ -6337,7 +8824,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6375,7 +8862,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88421488"/>
@@ -6417,7 +8904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6447,7 +8934,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6523,7 +9010,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6547,7 +9034,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>My extended TorcPy</c:v>
+            <c:v>extended torcpy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6662,7 +9149,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>No TorcPy</c:v>
+            <c:v>mpi4py</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6777,7 +9264,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>TorcPy Map</c:v>
+            <c:v>torcpy's map</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6979,7 +9466,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7017,7 +9504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88418608"/>
@@ -7096,7 +9583,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7134,7 +9621,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88421488"/>
@@ -7176,7 +9663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7206,7 +9693,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7282,7 +9769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7306,7 +9793,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>My extended TorcPy</c:v>
+            <c:v>extended torcpy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7418,10 +9905,125 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>TorcPy Map</c:v>
+            <c:v>mpi4py</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$J$42:$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$42:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2705.91507744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2547.2582394999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2627.7155968000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2476.9404570900001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2432.9623971199999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1315.6960144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1225.0237199999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1204.141562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1168.9152724</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1136.5505029999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1653-49FE-9019-F16E55531564}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>torcpy's map</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7529,121 +10131,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1653-49FE-9019-F16E55531564}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>No TorcPy</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Folha1!$J$42:$J$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Folha1!$M$42:$M$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2705.91507744</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2547.2582394999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2627.7155968000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2476.9404570900001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2432.9623971199999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1315.6960144</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1225.0237199999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1204.141562</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1168.9152724</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1136.5505029999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1653-49FE-9019-F16E55531564}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7738,7 +10225,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7776,7 +10263,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88418608"/>
@@ -7855,7 +10342,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7893,7 +10380,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88421488"/>
@@ -7935,7 +10422,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7965,7 +10452,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7977,6 +10464,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8852,6 +11459,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12985,15 +17140,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1314449</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13020,16 +17175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1657348</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13058,16 +17213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13096,16 +17251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13134,16 +17289,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1704974</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13172,16 +17327,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>514352</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600077</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13210,16 +17365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13248,16 +17403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1704974</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13286,16 +17441,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>514352</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600077</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13322,21 +17477,135 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6C4926-9128-49D6-B1D0-A376CF44BFE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1647823</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27D18F2-8DF4-4907-97A8-A3F0134CC7D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>109540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C13D63-DF62-40A6-A9D0-1EFDCA5FB1F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}" name="Tabela3" displayName="Tabela3" ref="C8:H19" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}" name="Tabela3" displayName="Tabela3" ref="C8:H19" totalsRowCount="1" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="C8:H18" xr:uid="{4017355C-ACE8-404D-A030-86E9D188E3E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" xr3:uid="{C98AF479-E221-4A14-B9BE-E7053BAA2634}" name="THREADS" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{208B8228-56D3-4A48-9160-A2535670BD90}" name="NO_TORCPY" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{61F68BFC-B467-47E2-A2C8-0E2199B59AB1}" name="WITH_TORCPY_MAP" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{595497DF-D8FC-4682-B02C-B2415D8B2188}" name="WITH_TORCPY_MINE" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{501D5899-B2F9-4108-B1C4-A071ECD87B58}" name="% FASTER NO_TORCPY" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>100 - (D9*100/F9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="6" xr3:uid="{57B518AE-7406-429F-9B76-C5A7CE4DDB54}" name="% FASTER TORC_MAP" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>100 - (E9*100/F9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13345,17 +17614,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H34" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}" name="Tabela33" displayName="Tabela33" ref="C23:H34" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="C23:H33" xr:uid="{267D8E00-0183-45B4-8B95-DB3E6BD88ACE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{7BC9BE73-34AA-44B8-98E5-EB8775B1093D}" name="THREADS" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{3B191EA7-49F8-4C72-AA5C-C3D7BE96919E}" name="NO_TORCPY" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{4E00C22E-8E2F-4BD5-A368-74D302F963C0}" name="WITH_TORCPY_MAP" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{F7078830-C246-4828-A4CA-68768101B0FE}" name="WITH_TORCPY_MINE" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{D1DD9F50-83AC-421D-A7BD-E20E8D9A0611}" name="% FASTER NO_TORCPY" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>100 - (D24*100/F24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="6" xr3:uid="{D9E37E4F-7CDC-4FDC-9291-42693CAD1CD5}" name="% SLOWER TORC_MAP" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>(E24*100/F24) - 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13364,20 +17633,41 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}" name="Tabela332" displayName="Tabela332" ref="C41:H52" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}" name="Tabela332" displayName="Tabela332" ref="C41:H52" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="C41:H51" xr:uid="{3676447E-83EC-481B-BAB7-FC31903A21E7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{547AC1A3-2A11-4C9B-B162-7377C62A83AA}" name="THREADS" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{829B1D67-909C-47B5-BDFB-6BCABB018C83}" name="NO_TORCPY" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{77F01A88-0E90-4311-A77A-9CFB20F91830}" name="WITH_TORCPY_MAP" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{907655F2-A1EC-4098-AD88-83A40E44C685}" name="WITH_TORCPY_MINE" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CD390048-0FDB-44C7-8D50-5BC3B37B5032}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{547AC1A3-2A11-4C9B-B162-7377C62A83AA}" name="THREADS" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{829B1D67-909C-47B5-BDFB-6BCABB018C83}" name="NO_TORCPY" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{77F01A88-0E90-4311-A77A-9CFB20F91830}" name="WITH_TORCPY_MAP" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{907655F2-A1EC-4098-AD88-83A40E44C685}" name="WITH_TORCPY_MINE" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{CD390048-0FDB-44C7-8D50-5BC3B37B5032}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>100 - (D42*100/F42)</calculatedColumnFormula>
       <totalsRowFormula array="1">SUM(Tabela332[% FASTER NO_TORCPY]/10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5588AC35-A2AA-4678-A606-34333CE63B29}" name="% FASTER TORC_MAP" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{5588AC35-A2AA-4678-A606-34333CE63B29}" name="% FASTER TORC_MAP" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>100 - (E42*100/F42)</calculatedColumnFormula>
       <totalsRowFormula array="1">SUM(Tabela332[% FASTER TORC_MAP]/10)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2FECFD64-7DB9-4A1B-B63F-A4403D446037}" name="Tabela3325" displayName="Tabela3325" ref="C61:H72" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="C61:H71" xr:uid="{2FECFD64-7DB9-4A1B-B63F-A4403D446037}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2B66BC85-5EC5-4FE7-BEB4-D41D640EDCA4}" name="THREADS" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A6F57B7E-4698-434D-B2F5-163F7157C404}" name="mpi4py" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{ABCCB1C1-F319-4067-B1D8-5CE49FA592C5}" name="torcpy's map" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0529F0B3-7E54-41B5-BCA1-96E9442B6ECD}" name="extended torcpy" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C36E868A-3C28-4DA7-8792-2966A731DEAA}" name="% FASTER NO_TORCPY" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+      <calculatedColumnFormula>100 - (D62*100/F62)</calculatedColumnFormula>
+      <totalsRowFormula array="1">SUM(Tabela3325[% FASTER NO_TORCPY]/10)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{134BA8FB-EC8B-402D-A05E-2BAE4318EBC7}" name="% FASTER TORC_MAP" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
+      <calculatedColumnFormula>100 - (E62*100/F62)</calculatedColumnFormula>
+      <totalsRowFormula array="1">SUM(Tabela3325[% FASTER TORC_MAP]/10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13681,66 +17971,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF78862-5946-4DF0-A9D6-D2FEDB594540}">
-  <dimension ref="C5:S52"/>
+  <dimension ref="C5:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="I42" workbookViewId="0">
+      <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J6" s="25" t="s">
+    <row r="5" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
     </row>
-    <row r="7" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="38" t="s">
+    <row r="7" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="J7" s="28" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="J7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33" t="s">
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35" t="s">
+      <c r="O7" s="28"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
     </row>
-    <row r="8" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
@@ -13759,7 +18049,7 @@
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="18" t="s">
         <v>10</v>
       </c>
@@ -13788,7 +18078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
         <v>96</v>
       </c>
@@ -13849,7 +18139,7 @@
         <v>2908.1338577270499</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <v>65</v>
       </c>
@@ -13910,7 +18200,7 @@
         <v>2781.4682567119567</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <v>64</v>
       </c>
@@ -13971,7 +18261,7 @@
         <v>2583.9142150878847</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <v>33</v>
       </c>
@@ -14032,7 +18322,7 @@
         <v>2383.5273807048793</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <v>32</v>
       </c>
@@ -14093,7 +18383,7 @@
         <v>2172.2035446166974</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <v>16</v>
       </c>
@@ -14154,7 +18444,7 @@
         <v>2224.5400314331041</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <v>8</v>
       </c>
@@ -14215,7 +18505,7 @@
         <v>2117.882137298584</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <v>4</v>
       </c>
@@ -14276,7 +18566,7 @@
         <v>2112.4754495620718</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
         <v>2</v>
       </c>
@@ -14337,7 +18627,7 @@
         <v>2002.8283004760599</v>
       </c>
     </row>
-    <row r="18" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -14398,7 +18688,7 @@
         <v>1819.75348329544</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -14406,50 +18696,50 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J21" s="25" t="s">
+    <row r="20" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="21" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J21" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="38" t="s">
+    <row r="22" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="J22" s="28" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="J22" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33" t="s">
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="31"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="35" t="s">
+      <c r="O22" s="28"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="34"/>
     </row>
-    <row r="23" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
@@ -14468,7 +18758,7 @@
       <c r="H23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="29"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="18" t="s">
         <v>10</v>
       </c>
@@ -14497,7 +18787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
         <v>96</v>
       </c>
@@ -14558,7 +18848,7 @@
         <v>1614.3299331664991</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <v>65</v>
       </c>
@@ -14619,7 +18909,7 @@
         <v>2654.5672023296333</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
         <v>64</v>
       </c>
@@ -14680,7 +18970,7 @@
         <v>1433.8955993652287</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
         <v>33</v>
       </c>
@@ -14741,7 +19031,7 @@
         <v>2204.3271975517255</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
         <v>32</v>
       </c>
@@ -14802,7 +19092,7 @@
         <v>1149.8551864624001</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
         <v>16</v>
       </c>
@@ -14863,7 +19153,7 @@
         <v>1064.2868194580064</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
         <v>8</v>
       </c>
@@ -14924,7 +19214,7 @@
         <v>1048.1970691680881</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
         <v>4</v>
       </c>
@@ -14985,7 +19275,7 @@
         <v>1088.0610866546599</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <v>2</v>
       </c>
@@ -15046,7 +19336,7 @@
         <v>1005.87891626358</v>
       </c>
     </row>
-    <row r="33" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C33" s="1">
         <v>1</v>
       </c>
@@ -15107,7 +19397,7 @@
         <v>916.53135657310395</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -15115,55 +19405,55 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="E37" s="39" t="s">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="E37" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
     </row>
-    <row r="38" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J39" s="25" t="s">
+    <row r="38" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="39" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J39" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="27"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="37"/>
     </row>
-    <row r="40" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="J40" s="28" t="s">
+    <row r="40" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="J40" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="K40" s="30" t="s">
+      <c r="K40" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="33" t="s">
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="O40" s="31"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="35" t="s">
+      <c r="O40" s="28"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="R40" s="36"/>
-      <c r="S40" s="37"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="34"/>
     </row>
-    <row r="41" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
@@ -15182,7 +19472,7 @@
       <c r="H41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="29"/>
+      <c r="J41" s="39"/>
       <c r="K41" s="18" t="s">
         <v>10</v>
       </c>
@@ -15211,7 +19501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C42" s="1">
         <v>96</v>
       </c>
@@ -15272,7 +19562,7 @@
         <v>2694.4188076800001</v>
       </c>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C43" s="1">
         <v>65</v>
       </c>
@@ -15333,7 +19623,7 @@
         <v>2522.2579011500002</v>
       </c>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C44" s="1">
         <v>64</v>
       </c>
@@ -15394,7 +19684,7 @@
         <v>2530.5099795199999</v>
       </c>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C45" s="1">
         <v>33</v>
       </c>
@@ -15455,7 +19745,7 @@
         <v>2476.9761297600003</v>
       </c>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C46" s="1">
         <v>32</v>
       </c>
@@ -15516,7 +19806,7 @@
         <v>2432.1339366399998</v>
       </c>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C47" s="1">
         <v>16</v>
       </c>
@@ -15577,7 +19867,7 @@
         <v>1294.62737408</v>
       </c>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C48" s="1">
         <v>8</v>
       </c>
@@ -15638,7 +19928,7 @@
         <v>1267.2797584</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C49" s="1">
         <v>4</v>
       </c>
@@ -15699,7 +19989,7 @@
         <v>1203.2243172000001</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C50" s="1">
         <v>2</v>
       </c>
@@ -15760,7 +20050,7 @@
         <v>1246.4108306000001</v>
       </c>
     </row>
-    <row r="51" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C51" s="1">
         <v>1</v>
       </c>
@@ -15821,7 +20111,7 @@
         <v>1175.8128730000001</v>
       </c>
     </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -15835,20 +20125,735 @@
         <v>2.4204469118482508</v>
       </c>
     </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="E57" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+    </row>
+    <row r="58" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="59" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J59" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="37"/>
+    </row>
+    <row r="60" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="J60" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="28"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="33"/>
+      <c r="S60" s="34"/>
+    </row>
+    <row r="61" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="39"/>
+      <c r="K61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P61" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S61" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C62" s="1">
+        <v>96</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4.9782118797302202</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45.655118703842099</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5.7372710704803396</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" ref="G62:G71" si="15">100 - (D62*100/F62)</f>
+        <v>13.230317714211978</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" ref="H62:H71" si="16">100 - (E62*100/F62)</f>
+        <v>-695.76366783066658</v>
+      </c>
+      <c r="J62" s="17">
+        <v>96</v>
+      </c>
+      <c r="K62" s="14">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1.3422462710248888</v>
+      </c>
+      <c r="L62" s="15">
+        <f>K62/J62</f>
+        <v>1.3981731989842592E-2</v>
+      </c>
+      <c r="M62" s="21">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>477.90834045410111</v>
+      </c>
+      <c r="N62" s="14">
+        <f>E71/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>8.7887434471159487E-2</v>
+      </c>
+      <c r="O62" s="15">
+        <f>N62/J62</f>
+        <v>9.1549410907457802E-4</v>
+      </c>
+      <c r="P62" s="21">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>4382.8913955688413</v>
+      </c>
+      <c r="Q62" s="14">
+        <f>F71/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>1.3475972411573724</v>
+      </c>
+      <c r="R62" s="15">
+        <f>Q62/J62</f>
+        <v>1.4037471262055963E-2</v>
+      </c>
+      <c r="S62" s="16">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>550.7780227661126</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C63" s="1">
+        <v>65</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4.6028635501861501</v>
+      </c>
+      <c r="E63" s="1">
+        <v>59.900948524475098</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5.2964885234832701</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="15"/>
+        <v>13.095940267249986</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="16"/>
+        <v>-1030.9558825416061</v>
+      </c>
+      <c r="J63" s="9">
+        <v>65</v>
+      </c>
+      <c r="K63" s="5">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1.4517020239866671</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" ref="L63:L71" si="17">K63/J63</f>
+        <v>2.233387729210257E-2</v>
+      </c>
+      <c r="M63" s="22">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>299.18613076209976</v>
+      </c>
+      <c r="N63" s="5">
+        <f>E71/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>6.6985771547798556E-2</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" ref="O63:O71" si="18">N63/J63</f>
+        <v>1.0305503315045932E-3</v>
+      </c>
+      <c r="P63" s="22">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3893.5616540908813</v>
+      </c>
+      <c r="Q63" s="5">
+        <f>F71/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>1.4597465154642908</v>
+      </c>
+      <c r="R63" s="3">
+        <f t="shared" ref="R63:R71" si="19">Q63/J63</f>
+        <v>2.2457638699450628E-2</v>
+      </c>
+      <c r="S63" s="12">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>344.27175402641257</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C64" s="1">
+        <v>64</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4.60090780258178</v>
+      </c>
+      <c r="E64" s="1">
+        <v>61.792360305786097</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5.3664600849151602</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="15"/>
+        <v>14.265498489130806</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="16"/>
+        <v>-1051.4547639976156</v>
+      </c>
+      <c r="J64" s="8">
+        <v>64</v>
+      </c>
+      <c r="K64" s="4">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1.4523191115001526</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" si="17"/>
+        <v>2.2692486117189884E-2</v>
+      </c>
+      <c r="M64" s="23">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>294.45809936523392</v>
+      </c>
+      <c r="N64" s="4">
+        <f>E71/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>6.4935393849669912E-2</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" si="18"/>
+        <v>1.0146155289010924E-3</v>
+      </c>
+      <c r="P64" s="23">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3954.7110595703102</v>
+      </c>
+      <c r="Q64" s="4">
+        <f>F71/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>1.4407133462306447</v>
+      </c>
+      <c r="R64" s="2">
+        <f t="shared" si="19"/>
+        <v>2.2511146034853824E-2</v>
+      </c>
+      <c r="S64" s="11">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>343.45344543457026</v>
+      </c>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C65" s="1">
+        <v>33</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4.5520946979522696</v>
+      </c>
+      <c r="E65" s="1">
+        <v>105.91707396507201</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5.3902382850646902</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="15"/>
+        <v>15.549286372640609</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="16"/>
+        <v>-1864.9794380806463</v>
+      </c>
+      <c r="J65" s="9">
+        <v>33</v>
+      </c>
+      <c r="K65" s="5">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1.4678926462020965</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="17"/>
+        <v>4.4481595339457468E-2</v>
+      </c>
+      <c r="M65" s="22">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>150.2191250324249</v>
+      </c>
+      <c r="N65" s="5">
+        <f>E71/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3.7883516822605254E-2</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="18"/>
+        <v>1.1479853582607653E-3</v>
+      </c>
+      <c r="P65" s="22">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3495.2634408473764</v>
+      </c>
+      <c r="Q65" s="5">
+        <f>F71/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>1.4343578627634865</v>
+      </c>
+      <c r="R65" s="3">
+        <f t="shared" si="19"/>
+        <v>4.3465389780711711E-2</v>
+      </c>
+      <c r="S65" s="12">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>177.87786340713478</v>
+      </c>
+    </row>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C66" s="1">
+        <v>32</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4.6836643218994096</v>
+      </c>
+      <c r="E66" s="1">
+        <v>112.054350614547</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5.3668043613433802</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="15"/>
+        <v>12.728990912442583</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="16"/>
+        <v>-1987.9156956356492</v>
+      </c>
+      <c r="J66" s="8">
+        <v>32</v>
+      </c>
+      <c r="K66" s="4">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1.42665782018082</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="17"/>
+        <v>4.4583056880650625E-2</v>
+      </c>
+      <c r="M66" s="23">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>149.87725830078111</v>
+      </c>
+      <c r="N66" s="4">
+        <f>E71/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3.5808616366529746E-2</v>
+      </c>
+      <c r="O66" s="2">
+        <f t="shared" si="18"/>
+        <v>1.1190192614540545E-3</v>
+      </c>
+      <c r="P66" s="23">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3585.7392196655042</v>
+      </c>
+      <c r="Q66" s="4">
+        <f>F71/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>1.4406209255624904</v>
+      </c>
+      <c r="R66" s="2">
+        <f t="shared" si="19"/>
+        <v>4.5019403923827826E-2</v>
+      </c>
+      <c r="S66" s="11">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>171.73773956298817</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C67" s="1">
+        <v>16</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3.4223382472991899</v>
+      </c>
+      <c r="E67" s="1">
+        <v>213.260976314544</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3.6459887027740399</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="15"/>
+        <v>6.1341510823850456</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="16"/>
+        <v>-5749.1946547252055</v>
+      </c>
+      <c r="J67" s="9">
+        <v>16</v>
+      </c>
+      <c r="K67" s="5">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1.9524622784474679</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="17"/>
+        <v>0.12202889240296674</v>
+      </c>
+      <c r="M67" s="22">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>54.757411956787038</v>
+      </c>
+      <c r="N67" s="5">
+        <f>E71/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>1.8815028059511348E-2</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" si="18"/>
+        <v>1.1759392537194593E-3</v>
+      </c>
+      <c r="P67" s="22">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3412.1756210327039</v>
+      </c>
+      <c r="Q67" s="5">
+        <f>F71/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>2.1205580424505426</v>
+      </c>
+      <c r="R67" s="3">
+        <f t="shared" si="19"/>
+        <v>0.13253487765315891</v>
+      </c>
+      <c r="S67" s="12">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>58.335819244384638</v>
+      </c>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C68" s="1">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3.63673615455627</v>
+      </c>
+      <c r="E68" s="1">
+        <v>422.40226960182099</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3.8722853660583398</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="15"/>
+        <v>6.0829507444550615</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="16"/>
+        <v>-10808.345580733658</v>
+      </c>
+      <c r="J68" s="8">
+        <v>8</v>
+      </c>
+      <c r="K68" s="4">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1.8373580177292188</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="17"/>
+        <v>0.22966975221615235</v>
+      </c>
+      <c r="M68" s="23">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>29.09388923645016</v>
+      </c>
+      <c r="N68" s="4">
+        <f>E71/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>9.4992653735959751E-3</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="18"/>
+        <v>1.1874081716994969E-3</v>
+      </c>
+      <c r="P68" s="23">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3379.2181568145679</v>
+      </c>
+      <c r="Q68" s="4">
+        <f>F71/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>1.9966324626073095</v>
+      </c>
+      <c r="R68" s="2">
+        <f t="shared" si="19"/>
+        <v>0.24957905782591369</v>
+      </c>
+      <c r="S68" s="11">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>30.978282928466719</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4.0965311527252197</v>
+      </c>
+      <c r="E69" s="1">
+        <v>840.06729245185795</v>
+      </c>
+      <c r="F69" s="1">
+        <v>4.4178881645202601</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="15"/>
+        <v>7.2739960774886754</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="16"/>
+        <v>-18915.132596573574</v>
+      </c>
+      <c r="J69" s="9">
+        <v>4</v>
+      </c>
+      <c r="K69" s="5">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1.6311328006121704</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="17"/>
+        <v>0.40778320015304259</v>
+      </c>
+      <c r="M69" s="22">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>16.386124610900879</v>
+      </c>
+      <c r="N69" s="5">
+        <f>E71/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>4.7764164721207456E-3</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="18"/>
+        <v>1.1941041180301864E-3</v>
+      </c>
+      <c r="P69" s="22">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3360.2691698074318</v>
+      </c>
+      <c r="Q69" s="5">
+        <f>F71/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>1.7500512413244576</v>
+      </c>
+      <c r="R69" s="3">
+        <f t="shared" si="19"/>
+        <v>0.43751281033111439</v>
+      </c>
+      <c r="S69" s="12">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>17.67155265808104</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>4.9895637035369802</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1674.3995137214599</v>
+      </c>
+      <c r="F70" s="1">
+        <v>5.5409371852874703</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="15"/>
+        <v>9.9509065580912903</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="16"/>
+        <v>-30118.705928798401</v>
+      </c>
+      <c r="J70" s="8">
+        <v>2</v>
+      </c>
+      <c r="K70" s="4">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1.3391925083956726</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="17"/>
+        <v>0.6695962541978363</v>
+      </c>
+      <c r="M70" s="23">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>9.9791274070739604</v>
+      </c>
+      <c r="N70" s="4">
+        <f>E71/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>2.3963882099074835E-3</v>
+      </c>
+      <c r="O70" s="2">
+        <f t="shared" si="18"/>
+        <v>1.1981941049537417E-3</v>
+      </c>
+      <c r="P70" s="23">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>3348.7990274429199</v>
+      </c>
+      <c r="Q70" s="4">
+        <f>F71/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>1.3953471060600355</v>
+      </c>
+      <c r="R70" s="2">
+        <f t="shared" si="19"/>
+        <v>0.69767355303001777</v>
+      </c>
+      <c r="S70" s="11">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>11.081874370574941</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6.6819863319396902</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4.01251125335693</v>
+      </c>
+      <c r="F71" s="1">
+        <v>7.7315306663513104</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="15"/>
+        <v>13.574858326299889</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="16"/>
+        <v>48.101981011083183</v>
+      </c>
+      <c r="J71" s="10">
+        <v>1</v>
+      </c>
+      <c r="K71" s="6">
+        <f>D71/Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>1</v>
+      </c>
+      <c r="L71" s="7">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M71" s="24">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[mpi4py]]</f>
+        <v>6.6819863319396902</v>
+      </c>
+      <c r="N71" s="6">
+        <f>Tabela3325[[#This Row],[torcpy''s map]]/Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>1</v>
+      </c>
+      <c r="O71" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P71" s="24">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[torcpy''s map]]</f>
+        <v>4.01251125335693</v>
+      </c>
+      <c r="Q71" s="6">
+        <f>Tabela3325[[#This Row],[extended torcpy]]/Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>1</v>
+      </c>
+      <c r="R71" s="7">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="S71" s="13">
+        <f>Tabela3325[[#This Row],[THREADS]]*Tabela3325[[#This Row],[extended torcpy]]</f>
+        <v>7.7315306663513104</v>
+      </c>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" cm="1">
+        <f t="array" ref="G72">SUM(Tabela3325[% FASTER NO_TORCPY]/10)</f>
+        <v>11.188689654439592</v>
+      </c>
+      <c r="H72" s="1" cm="1">
+        <f t="array" ref="H72">SUM(Tabela3325[% FASTER TORC_MAP]/10)</f>
+        <v>-7217.4346227905935</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="J6:S6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:M22"/>
+  <mergeCells count="26">
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="J59:S59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="Q60:S60"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="J39:S39"/>
@@ -15856,15 +20861,28 @@
     <mergeCell ref="K40:M40"/>
     <mergeCell ref="N40:P40"/>
     <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="J6:S6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>